--- a/selenium/Vietnam_Universities.xlsx
+++ b/selenium/Vietnam_Universities.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="899" uniqueCount="689">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="900" uniqueCount="691">
   <si>
     <t>Name</t>
   </si>
@@ -37,9 +37,6 @@
     <t>Website</t>
   </si>
   <si>
-    <t>Location</t>
-  </si>
-  <si>
     <t>Trường Đại học Anh Quốc tại Việt Nam (British University Vietnam)</t>
   </si>
   <si>
@@ -484,6 +481,9 @@
     <t>Đại học Công nghiệp Hà Nội (HaUI)</t>
   </si>
   <si>
+    <t>Đại học Công nghệ Nanyang</t>
+  </si>
+  <si>
     <t>Đại học Cần Thơ</t>
   </si>
   <si>
@@ -1012,6 +1012,9 @@
     <t>https://vi.wikipedia.org/wiki/%C4%90%E1%BA%A1i_h%E1%BB%8Dc_C%C3%B4ng_nghi%E1%BB%87p_H%C3%A0_N%E1%BB%99i</t>
   </si>
   <si>
+    <t>https://vi.wikipedia.org/wiki/%C4%90%E1%BA%A1i_h%E1%BB%8Dc_C%C3%B4ng_ngh%E1%BB%87_Nanyang</t>
+  </si>
+  <si>
     <t>https://vi.wikipedia.org/wiki/%C4%90%E1%BA%A1i_h%E1%BB%8Dc_C%E1%BA%A7n_Th%C6%A1</t>
   </si>
   <si>
@@ -1168,6 +1171,9 @@
     <t>Đại học thực hành</t>
   </si>
   <si>
+    <t>Đại học nghiên cứu công lập [ 1 ]</t>
+  </si>
+  <si>
     <t>Đại học đa ngành hệ công lập định hướng đại học đa thành viên</t>
   </si>
   <si>
@@ -1459,6 +1465,9 @@
     <t>10 tháng 8 năm 1898 ; 127 năm trước ( 1898-08-10 ) , nâng cấp lên đại học 2/12/2005</t>
   </si>
   <si>
+    <t>8 tháng 8 năm 1981 ; 44 năm trước ( 1981-08-08 ) [ 2 ] [ 3 ] (Viện Công nghệ Nanyang) 1 tháng 7 năm 1991 ; 34 năm trước ( 1991-07-01 ) [ 4 ] (Đại học Công nghệ Nanyang)</t>
+  </si>
+  <si>
     <t>31 tháng 3 năm 1966 ; 59 năm trước ( 1966-03-31 )</t>
   </si>
   <si>
@@ -1741,6 +1750,9 @@
     <t>NGƯT.PGS.TS. Phạm Văn Bổng TS. Nguyễn Văn Thiện NGƯT.PGS.TS. Phạm Văn Đông</t>
   </si>
   <si>
+    <t>Christian Wolfrum</t>
+  </si>
+  <si>
     <t>PGS.TS. Nguyễn Hiếu Trung GS.TS. Trần Ngọc Hải</t>
   </si>
   <si>
@@ -2041,6 +2053,9 @@
     <t>https://www.haui.edu.vn/vn</t>
   </si>
   <si>
+    <t>https://ntu.edu.sg</t>
+  </si>
+  <si>
     <t>http://ctu.edu.vn</t>
   </si>
   <si>
@@ -2072,15 +2087,6 @@
   </si>
   <si>
     <t>http://vnuhcm.edu.vn</t>
-  </si>
-  <si>
-    <t>Vinhomes Ocean Park, Đa Tốn , Gia Lâm , Hà Nội 20°59′21″B 105°56′37″Đ ﻿ / ﻿ 20,989251°B 105,943573°Đ ﻿ / 20.989251; 105.943573</t>
-  </si>
-  <si>
-    <t>Russian Federation Blvd , Phnôm Pênh , Campuchia 11°34′08″B 104°53′29″Đ ﻿ / ﻿ 11,569°B 104,8914°Đ ﻿ / 11.569; 104.8914</t>
-  </si>
-  <si>
-    <t>P.O.Box 7322, Dongdok, Vientiane , Viêng Chăn , Lào</t>
   </si>
 </sst>
 </file>
@@ -2451,13 +2457,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H167"/>
+  <dimension ref="A1:G168"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2479,41 +2485,38 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" t="s">
-        <v>8</v>
       </c>
       <c r="B2" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>223</v>
       </c>
       <c r="D3" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="E3" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="F3" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
         <v>175</v>
@@ -2522,41 +2525,41 @@
         <v>223</v>
       </c>
       <c r="D4" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="E4" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="F4" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>224</v>
       </c>
       <c r="D5" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="E5" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="F5" t="s">
-        <v>492</v>
+        <v>495</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B6" t="s">
         <v>176</v>
@@ -2565,49 +2568,49 @@
         <v>225</v>
       </c>
       <c r="D6" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="E6" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="F6" t="s">
-        <v>493</v>
+        <v>496</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>226</v>
       </c>
       <c r="D7" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="E7" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="F7" t="s">
-        <v>494</v>
+        <v>497</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B9" t="s">
         <v>177</v>
@@ -2616,39 +2619,39 @@
         <v>227</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>228</v>
       </c>
       <c r="D10" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="E10" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="F10" t="s">
-        <v>495</v>
+        <v>498</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
-      <c r="A12" t="s">
+    <row r="13" spans="1:7">
+      <c r="A13" t="s">
         <v>18</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" t="s">
-        <v>19</v>
       </c>
       <c r="B13" t="s">
         <v>178</v>
@@ -2657,41 +2660,41 @@
         <v>229</v>
       </c>
       <c r="D13" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="E13" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="F13" t="s">
-        <v>496</v>
+        <v>499</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>230</v>
       </c>
       <c r="D14" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="E14" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="F14" t="s">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B15" t="s">
         <v>179</v>
@@ -2700,21 +2703,21 @@
         <v>230</v>
       </c>
       <c r="D15" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="E15" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="F15" t="s">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B16" t="s">
         <v>180</v>
@@ -2723,26 +2726,26 @@
         <v>231</v>
       </c>
       <c r="D16" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="E16" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="F16" t="s">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>589</v>
+        <v>593</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B18" t="s">
         <v>181</v>
@@ -2753,7 +2756,7 @@
     </row>
     <row r="19" spans="1:7">
       <c r="A19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B19" t="s">
         <v>182</v>
@@ -2762,61 +2765,61 @@
         <v>233</v>
       </c>
       <c r="D19" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="E19" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="F19" t="s">
-        <v>499</v>
+        <v>502</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>590</v>
+        <v>594</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>234</v>
       </c>
       <c r="D20" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="E20" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="F20" t="s">
-        <v>500</v>
+        <v>503</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>591</v>
+        <v>595</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>235</v>
       </c>
       <c r="D21" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="E21" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="F21" t="s">
-        <v>501</v>
+        <v>504</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>592</v>
+        <v>596</v>
       </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B22" t="s">
         <v>183</v>
@@ -2825,81 +2828,81 @@
         <v>235</v>
       </c>
       <c r="D22" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="E22" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="F22" t="s">
-        <v>501</v>
+        <v>504</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>592</v>
+        <v>596</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>236</v>
       </c>
       <c r="D23" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="E23" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="F23" t="s">
-        <v>502</v>
+        <v>505</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>593</v>
+        <v>597</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>236</v>
       </c>
       <c r="D24" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="E24" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="F24" t="s">
-        <v>502</v>
+        <v>505</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>593</v>
+        <v>597</v>
       </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>237</v>
       </c>
       <c r="D25" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="E25" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="F25" t="s">
-        <v>503</v>
+        <v>506</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>594</v>
+        <v>598</v>
       </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B26" t="s">
         <v>184</v>
@@ -2908,86 +2911,86 @@
         <v>237</v>
       </c>
       <c r="D26" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="E26" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="F26" t="s">
-        <v>503</v>
+        <v>506</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>594</v>
+        <v>598</v>
       </c>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>238</v>
       </c>
       <c r="D27" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="E27" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="F27" t="s">
-        <v>504</v>
+        <v>507</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>595</v>
+        <v>599</v>
       </c>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>239</v>
       </c>
       <c r="D28" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="E28" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="F28" t="s">
-        <v>505</v>
+        <v>508</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>596</v>
+        <v>600</v>
       </c>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>240</v>
       </c>
       <c r="D30" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="E30" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="F30" t="s">
-        <v>506</v>
+        <v>509</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>597</v>
+        <v>601</v>
       </c>
     </row>
     <row r="31" spans="1:7">
       <c r="A31" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B31" t="s">
         <v>185</v>
@@ -2996,61 +2999,61 @@
         <v>240</v>
       </c>
       <c r="D31" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="E31" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="F31" t="s">
-        <v>506</v>
+        <v>509</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>597</v>
+        <v>601</v>
       </c>
     </row>
     <row r="32" spans="1:7">
       <c r="A32" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>241</v>
       </c>
       <c r="D32" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="E32" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="F32" t="s">
-        <v>507</v>
+        <v>510</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>598</v>
+        <v>602</v>
       </c>
     </row>
     <row r="33" spans="1:7">
       <c r="A33" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>242</v>
       </c>
       <c r="D33" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="E33" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="F33" t="s">
-        <v>508</v>
+        <v>511</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>599</v>
+        <v>603</v>
       </c>
     </row>
     <row r="34" spans="1:7">
       <c r="A34" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B34" t="s">
         <v>186</v>
@@ -3059,41 +3062,41 @@
         <v>242</v>
       </c>
       <c r="D34" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="E34" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="F34" t="s">
-        <v>508</v>
+        <v>511</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>599</v>
+        <v>603</v>
       </c>
     </row>
     <row r="35" spans="1:7">
       <c r="A35" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>243</v>
       </c>
       <c r="D35" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="E35" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="F35" t="s">
-        <v>509</v>
+        <v>512</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
     </row>
     <row r="36" spans="1:7">
       <c r="A36" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B36" t="s">
         <v>187</v>
@@ -3102,21 +3105,21 @@
         <v>243</v>
       </c>
       <c r="D36" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="E36" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="F36" t="s">
-        <v>509</v>
+        <v>512</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
     </row>
     <row r="37" spans="1:7">
       <c r="A37" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>244</v>
@@ -3124,58 +3127,58 @@
     </row>
     <row r="38" spans="1:7">
       <c r="A38" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>245</v>
       </c>
       <c r="E38" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>601</v>
+        <v>605</v>
       </c>
     </row>
     <row r="39" spans="1:7">
       <c r="A39" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>246</v>
       </c>
       <c r="D39" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="E39" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="F39" t="s">
-        <v>510</v>
+        <v>513</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>602</v>
+        <v>606</v>
       </c>
     </row>
     <row r="40" spans="1:7">
       <c r="A40" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>247</v>
       </c>
       <c r="D40" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="E40" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>603</v>
+        <v>607</v>
       </c>
     </row>
     <row r="41" spans="1:7">
       <c r="A41" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B41" t="s">
         <v>188</v>
@@ -3184,21 +3187,21 @@
         <v>248</v>
       </c>
       <c r="D41" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="E41" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="F41" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>604</v>
+        <v>608</v>
       </c>
     </row>
     <row r="42" spans="1:7">
       <c r="A42" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>249</v>
@@ -3206,7 +3209,7 @@
     </row>
     <row r="43" spans="1:7">
       <c r="A43" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B43" t="s">
         <v>189</v>
@@ -3217,47 +3220,47 @@
     </row>
     <row r="44" spans="1:7">
       <c r="A44" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>251</v>
       </c>
       <c r="D44" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="E44" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="F44" t="s">
-        <v>512</v>
+        <v>515</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>605</v>
+        <v>609</v>
       </c>
     </row>
     <row r="45" spans="1:7">
       <c r="A45" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>252</v>
       </c>
       <c r="D45" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="E45" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="F45" t="s">
-        <v>513</v>
+        <v>516</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>606</v>
+        <v>610</v>
       </c>
     </row>
     <row r="46" spans="1:7">
       <c r="A46" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B46" t="s">
         <v>190</v>
@@ -3266,61 +3269,61 @@
         <v>253</v>
       </c>
       <c r="D46" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="E46" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="F46" t="s">
-        <v>513</v>
+        <v>516</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>606</v>
+        <v>610</v>
       </c>
     </row>
     <row r="47" spans="1:7">
       <c r="A47" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>254</v>
       </c>
       <c r="D47" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="E47" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="F47" t="s">
-        <v>514</v>
+        <v>517</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>607</v>
+        <v>611</v>
       </c>
     </row>
     <row r="48" spans="1:7">
       <c r="A48" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>255</v>
       </c>
       <c r="D48" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="E48" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="F48" t="s">
-        <v>515</v>
+        <v>518</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>608</v>
+        <v>612</v>
       </c>
     </row>
     <row r="49" spans="1:7">
       <c r="A49" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B49" t="s">
         <v>191</v>
@@ -3329,138 +3332,138 @@
         <v>255</v>
       </c>
       <c r="D49" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="E49" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="F49" t="s">
-        <v>515</v>
+        <v>518</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>608</v>
+        <v>612</v>
       </c>
     </row>
     <row r="50" spans="1:7">
       <c r="A50" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>256</v>
       </c>
       <c r="D50" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="E50" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="F50" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>609</v>
+        <v>613</v>
       </c>
     </row>
     <row r="51" spans="1:7">
       <c r="A51" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>257</v>
       </c>
       <c r="D51" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="E51" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="F51" t="s">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>610</v>
+        <v>614</v>
       </c>
     </row>
     <row r="52" spans="1:7">
       <c r="A52" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>258</v>
       </c>
       <c r="D52" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="E52" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="F52" t="s">
-        <v>518</v>
+        <v>521</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>611</v>
+        <v>615</v>
       </c>
     </row>
     <row r="53" spans="1:7">
       <c r="A53" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>259</v>
       </c>
       <c r="D53" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="E53" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>612</v>
+        <v>616</v>
       </c>
     </row>
     <row r="54" spans="1:7">
       <c r="A54" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>260</v>
       </c>
       <c r="D54" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="E54" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="F54" t="s">
-        <v>519</v>
+        <v>522</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>613</v>
+        <v>617</v>
       </c>
     </row>
     <row r="55" spans="1:7">
       <c r="A55" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>261</v>
       </c>
       <c r="D55" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="E55" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="F55" t="s">
-        <v>520</v>
+        <v>523</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>614</v>
+        <v>618</v>
       </c>
     </row>
     <row r="56" spans="1:7">
       <c r="A56" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B56" t="s">
         <v>192</v>
@@ -3469,38 +3472,38 @@
         <v>261</v>
       </c>
       <c r="D56" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="E56" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="F56" t="s">
-        <v>520</v>
+        <v>523</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>614</v>
+        <v>618</v>
       </c>
     </row>
     <row r="57" spans="1:7">
       <c r="A57" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>262</v>
       </c>
       <c r="D57" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="F57" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>615</v>
+        <v>619</v>
       </c>
     </row>
     <row r="58" spans="1:7">
       <c r="A58" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B58" t="s">
         <v>193</v>
@@ -3509,132 +3512,132 @@
         <v>262</v>
       </c>
       <c r="D58" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="F58" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>615</v>
+        <v>619</v>
       </c>
     </row>
     <row r="59" spans="1:7">
       <c r="A59" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>263</v>
       </c>
       <c r="D59" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="E59" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="F59" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>616</v>
+        <v>620</v>
       </c>
     </row>
     <row r="60" spans="1:7">
       <c r="A60" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>264</v>
       </c>
       <c r="D60" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="E60" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="F60" t="s">
-        <v>523</v>
+        <v>526</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>617</v>
+        <v>621</v>
       </c>
     </row>
     <row r="61" spans="1:7">
       <c r="A61" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>265</v>
       </c>
       <c r="D61" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="E61" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="F61" t="s">
-        <v>524</v>
+        <v>527</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>618</v>
+        <v>622</v>
       </c>
     </row>
     <row r="62" spans="1:7">
       <c r="A62" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>266</v>
       </c>
       <c r="D62" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="E62" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="F62" t="s">
-        <v>525</v>
+        <v>528</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>619</v>
+        <v>623</v>
       </c>
     </row>
     <row r="63" spans="1:7">
       <c r="A63" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>267</v>
       </c>
       <c r="D63" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="E63" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="F63" t="s">
-        <v>526</v>
+        <v>529</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>620</v>
+        <v>624</v>
       </c>
     </row>
     <row r="64" spans="1:7">
       <c r="A64" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>268</v>
       </c>
       <c r="D64" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="E64" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
     </row>
     <row r="65" spans="1:7">
       <c r="A65" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B65" t="s">
         <v>194</v>
@@ -3642,7 +3645,7 @@
     </row>
     <row r="66" spans="1:7">
       <c r="A66" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B66" t="s">
         <v>195</v>
@@ -3651,41 +3654,41 @@
         <v>269</v>
       </c>
       <c r="D66" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="E66" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="F66" t="s">
-        <v>527</v>
+        <v>530</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>621</v>
+        <v>625</v>
       </c>
     </row>
     <row r="67" spans="1:7">
       <c r="A67" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>270</v>
       </c>
       <c r="D67" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="E67" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="F67" t="s">
-        <v>528</v>
+        <v>531</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>622</v>
+        <v>626</v>
       </c>
     </row>
     <row r="68" spans="1:7">
       <c r="A68" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B68" t="s">
         <v>196</v>
@@ -3694,61 +3697,61 @@
         <v>270</v>
       </c>
       <c r="D68" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="E68" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="F68" t="s">
-        <v>528</v>
+        <v>531</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>622</v>
+        <v>626</v>
       </c>
     </row>
     <row r="69" spans="1:7">
       <c r="A69" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>271</v>
       </c>
       <c r="D69" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="E69" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="F69" t="s">
-        <v>529</v>
+        <v>532</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>623</v>
+        <v>627</v>
       </c>
     </row>
     <row r="70" spans="1:7">
       <c r="A70" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>272</v>
       </c>
       <c r="D70" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="E70" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="F70" t="s">
-        <v>530</v>
+        <v>533</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>624</v>
+        <v>628</v>
       </c>
     </row>
     <row r="71" spans="1:7">
       <c r="A71" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B71" t="s">
         <v>197</v>
@@ -3757,41 +3760,41 @@
         <v>272</v>
       </c>
       <c r="D71" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="E71" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="F71" t="s">
-        <v>530</v>
+        <v>533</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>624</v>
+        <v>628</v>
       </c>
     </row>
     <row r="72" spans="1:7">
       <c r="A72" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>273</v>
       </c>
       <c r="D72" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="E72" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="F72" t="s">
-        <v>531</v>
+        <v>534</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>625</v>
+        <v>629</v>
       </c>
     </row>
     <row r="73" spans="1:7">
       <c r="A73" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B73" t="s">
         <v>198</v>
@@ -3800,61 +3803,61 @@
         <v>273</v>
       </c>
       <c r="D73" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="E73" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="F73" t="s">
-        <v>531</v>
+        <v>534</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>625</v>
+        <v>629</v>
       </c>
     </row>
     <row r="74" spans="1:7">
       <c r="A74" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>274</v>
       </c>
       <c r="D74" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="E74" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="F74" t="s">
-        <v>532</v>
+        <v>535</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>626</v>
+        <v>630</v>
       </c>
     </row>
     <row r="75" spans="1:7">
       <c r="A75" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>275</v>
       </c>
       <c r="D75" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="E75" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="F75" t="s">
-        <v>533</v>
+        <v>536</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>627</v>
+        <v>631</v>
       </c>
     </row>
     <row r="76" spans="1:7">
       <c r="A76" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B76" t="s">
         <v>199</v>
@@ -3863,21 +3866,21 @@
         <v>276</v>
       </c>
       <c r="D76" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="E76" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="F76" t="s">
-        <v>534</v>
+        <v>537</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>628</v>
+        <v>632</v>
       </c>
     </row>
     <row r="77" spans="1:7">
       <c r="A77" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B77" t="s">
         <v>200</v>
@@ -3888,21 +3891,21 @@
     </row>
     <row r="78" spans="1:7">
       <c r="A78" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>278</v>
       </c>
       <c r="D78" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="F78" t="s">
-        <v>535</v>
+        <v>538</v>
       </c>
     </row>
     <row r="79" spans="1:7">
       <c r="A79" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B79" t="s">
         <v>201</v>
@@ -3911,21 +3914,21 @@
         <v>279</v>
       </c>
       <c r="D79" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="E79" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="F79" t="s">
-        <v>536</v>
+        <v>539</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>629</v>
+        <v>633</v>
       </c>
     </row>
     <row r="80" spans="1:7">
       <c r="A80" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B80" t="s">
         <v>202</v>
@@ -3934,21 +3937,21 @@
         <v>280</v>
       </c>
       <c r="D80" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="E80" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="F80" t="s">
-        <v>537</v>
+        <v>540</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>630</v>
+        <v>634</v>
       </c>
     </row>
     <row r="81" spans="1:7">
       <c r="A81" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B81" t="s">
         <v>203</v>
@@ -3957,21 +3960,21 @@
         <v>281</v>
       </c>
       <c r="D81" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="E81" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="F81" t="s">
-        <v>538</v>
+        <v>541</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>631</v>
+        <v>635</v>
       </c>
     </row>
     <row r="82" spans="1:7">
       <c r="A82" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B82" t="s">
         <v>204</v>
@@ -3980,46 +3983,46 @@
         <v>282</v>
       </c>
       <c r="D82" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="E82" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="F82" t="s">
-        <v>539</v>
+        <v>542</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>632</v>
+        <v>636</v>
       </c>
     </row>
     <row r="83" spans="1:7">
       <c r="A83" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="84" spans="1:7">
       <c r="A84" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>283</v>
       </c>
       <c r="D84" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="E84" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="F84" t="s">
-        <v>540</v>
+        <v>543</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>633</v>
+        <v>637</v>
       </c>
     </row>
     <row r="85" spans="1:7">
       <c r="A85" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B85" t="s">
         <v>205</v>
@@ -4028,41 +4031,41 @@
         <v>283</v>
       </c>
       <c r="D85" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="E85" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="F85" t="s">
-        <v>540</v>
+        <v>543</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>633</v>
+        <v>637</v>
       </c>
     </row>
     <row r="86" spans="1:7">
       <c r="A86" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>284</v>
       </c>
       <c r="D86" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="E86" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="F86" t="s">
-        <v>541</v>
+        <v>544</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>634</v>
+        <v>638</v>
       </c>
     </row>
     <row r="87" spans="1:7">
       <c r="A87" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B87" t="s">
         <v>206</v>
@@ -4071,21 +4074,21 @@
         <v>284</v>
       </c>
       <c r="D87" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="E87" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="F87" t="s">
-        <v>541</v>
+        <v>544</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>634</v>
+        <v>638</v>
       </c>
     </row>
     <row r="88" spans="1:7">
       <c r="A88" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>285</v>
@@ -4093,7 +4096,7 @@
     </row>
     <row r="89" spans="1:7">
       <c r="A89" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B89" t="s">
         <v>207</v>
@@ -4104,47 +4107,47 @@
     </row>
     <row r="90" spans="1:7">
       <c r="A90" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>286</v>
       </c>
       <c r="D90" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="E90" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="F90" t="s">
-        <v>542</v>
+        <v>545</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>635</v>
+        <v>639</v>
       </c>
     </row>
     <row r="91" spans="1:7">
       <c r="A91" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>286</v>
       </c>
       <c r="D91" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="E91" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="F91" t="s">
-        <v>542</v>
+        <v>545</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>635</v>
+        <v>639</v>
       </c>
     </row>
     <row r="92" spans="1:7">
       <c r="A92" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>287</v>
@@ -4152,7 +4155,7 @@
     </row>
     <row r="93" spans="1:7">
       <c r="A93" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B93" t="s">
         <v>208</v>
@@ -4163,124 +4166,124 @@
     </row>
     <row r="94" spans="1:7">
       <c r="A94" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>288</v>
       </c>
       <c r="D94" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="E94" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="F94" t="s">
-        <v>543</v>
+        <v>546</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>636</v>
+        <v>640</v>
       </c>
     </row>
     <row r="95" spans="1:7">
       <c r="A95" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>289</v>
       </c>
       <c r="D95" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="E95" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="F95" t="s">
-        <v>544</v>
+        <v>547</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>637</v>
+        <v>641</v>
       </c>
     </row>
     <row r="96" spans="1:7">
       <c r="A96" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>290</v>
       </c>
       <c r="D96" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="E96" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="F96" t="s">
-        <v>545</v>
+        <v>548</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>638</v>
+        <v>642</v>
       </c>
     </row>
     <row r="97" spans="1:7">
       <c r="A97" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>291</v>
       </c>
       <c r="D97" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="E97" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="F97" t="s">
-        <v>546</v>
+        <v>549</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>639</v>
+        <v>643</v>
       </c>
     </row>
     <row r="98" spans="1:7">
       <c r="A98" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>292</v>
       </c>
       <c r="D98" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="E98" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="F98" t="s">
-        <v>547</v>
+        <v>550</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>640</v>
+        <v>644</v>
       </c>
     </row>
     <row r="99" spans="1:7">
       <c r="A99" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>293</v>
       </c>
       <c r="D99" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="E99" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>641</v>
+        <v>645</v>
       </c>
     </row>
     <row r="100" spans="1:7">
       <c r="A100" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>294</v>
@@ -4288,87 +4291,87 @@
     </row>
     <row r="101" spans="1:7">
       <c r="A101" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>295</v>
       </c>
       <c r="D101" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="E101" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="F101" t="s">
-        <v>548</v>
+        <v>551</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>642</v>
+        <v>646</v>
       </c>
     </row>
     <row r="102" spans="1:7">
       <c r="A102" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>296</v>
       </c>
       <c r="D102" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="E102" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="F102" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>643</v>
+        <v>647</v>
       </c>
     </row>
     <row r="103" spans="1:7">
       <c r="A103" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>297</v>
       </c>
       <c r="D103" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="E103" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="F103" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>644</v>
+        <v>648</v>
       </c>
     </row>
     <row r="104" spans="1:7">
       <c r="A104" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>298</v>
       </c>
       <c r="D104" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="E104" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="F104" t="s">
-        <v>551</v>
+        <v>554</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>645</v>
+        <v>649</v>
       </c>
     </row>
     <row r="105" spans="1:7">
       <c r="A105" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B105" t="s">
         <v>209</v>
@@ -4377,38 +4380,38 @@
         <v>298</v>
       </c>
       <c r="D105" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="E105" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="F105" t="s">
-        <v>551</v>
+        <v>554</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>645</v>
+        <v>649</v>
       </c>
     </row>
     <row r="106" spans="1:7">
       <c r="A106" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>299</v>
       </c>
       <c r="D106" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="E106" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>646</v>
+        <v>650</v>
       </c>
     </row>
     <row r="107" spans="1:7">
       <c r="A107" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B107" t="s">
         <v>210</v>
@@ -4417,140 +4420,140 @@
         <v>299</v>
       </c>
       <c r="D107" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="E107" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>646</v>
+        <v>650</v>
       </c>
     </row>
     <row r="108" spans="1:7">
       <c r="A108" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>300</v>
       </c>
       <c r="D108" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="E108" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="F108" t="s">
-        <v>552</v>
+        <v>555</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>647</v>
+        <v>651</v>
       </c>
     </row>
     <row r="109" spans="1:7">
       <c r="A109" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>301</v>
       </c>
       <c r="D109" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="E109" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="F109" t="s">
-        <v>553</v>
+        <v>556</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>648</v>
+        <v>652</v>
       </c>
     </row>
     <row r="110" spans="1:7">
       <c r="A110" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>302</v>
       </c>
       <c r="D110" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="E110" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="F110" t="s">
-        <v>554</v>
+        <v>557</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>649</v>
+        <v>653</v>
       </c>
     </row>
     <row r="111" spans="1:7">
       <c r="A111" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>303</v>
       </c>
       <c r="D111" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="E111" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="F111" t="s">
-        <v>555</v>
+        <v>558</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>650</v>
+        <v>654</v>
       </c>
     </row>
     <row r="112" spans="1:7">
       <c r="A112" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7">
+      <c r="A113" t="s">
         <v>118</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8">
-      <c r="A113" t="s">
-        <v>119</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>304</v>
       </c>
       <c r="D113" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="E113" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="F113" t="s">
-        <v>556</v>
+        <v>559</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>651</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7">
       <c r="A114" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>305</v>
       </c>
       <c r="D114" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="E114" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>652</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7">
       <c r="A115" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B115" t="s">
         <v>211</v>
@@ -4559,38 +4562,38 @@
         <v>305</v>
       </c>
       <c r="D115" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="E115" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>652</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7">
       <c r="A116" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>306</v>
       </c>
       <c r="D116" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="E116" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="F116" t="s">
-        <v>557</v>
+        <v>560</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7">
       <c r="A117" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B117" t="s">
         <v>212</v>
@@ -4599,41 +4602,38 @@
         <v>306</v>
       </c>
       <c r="D117" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="E117" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="F117" t="s">
-        <v>557</v>
+        <v>560</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7">
       <c r="A118" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>307</v>
       </c>
       <c r="D118" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="E118" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>654</v>
-      </c>
-      <c r="H118" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7">
       <c r="A119" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B119" t="s">
         <v>213</v>
@@ -4642,61 +4642,58 @@
         <v>307</v>
       </c>
       <c r="D119" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="E119" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>654</v>
-      </c>
-      <c r="H119" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7">
       <c r="A120" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>308</v>
       </c>
       <c r="D120" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="E120" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="F120" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>655</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7">
       <c r="A121" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>309</v>
       </c>
       <c r="D121" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="E121" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="F121" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7">
       <c r="A122" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B122" t="s">
         <v>214</v>
@@ -4705,38 +4702,38 @@
         <v>309</v>
       </c>
       <c r="D122" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="E122" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="F122" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7">
       <c r="A123" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>310</v>
       </c>
       <c r="D123" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="E123" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="G123" t="s">
-        <v>657</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7">
       <c r="A124" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B124" t="s">
         <v>215</v>
@@ -4745,38 +4742,38 @@
         <v>310</v>
       </c>
       <c r="D124" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="E124" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="G124" t="s">
-        <v>657</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7">
       <c r="A125" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>311</v>
       </c>
       <c r="D125" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="E125" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="F125" t="s">
-        <v>560</v>
+        <v>563</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>658</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7">
       <c r="A126" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B126" t="s">
         <v>216</v>
@@ -4785,177 +4782,177 @@
         <v>311</v>
       </c>
       <c r="D126" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="E126" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="F126" t="s">
-        <v>560</v>
+        <v>563</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>658</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7">
       <c r="A127" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>312</v>
       </c>
       <c r="D127" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="F127" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7">
       <c r="A128" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>313</v>
       </c>
       <c r="D128" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="E128" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="F128" t="s">
-        <v>562</v>
+        <v>565</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>659</v>
+        <v>663</v>
       </c>
     </row>
     <row r="129" spans="1:7">
       <c r="A129" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>314</v>
       </c>
       <c r="D129" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="E129" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="F129" t="s">
-        <v>563</v>
+        <v>566</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>660</v>
+        <v>664</v>
       </c>
     </row>
     <row r="130" spans="1:7">
       <c r="A130" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>315</v>
       </c>
       <c r="D130" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="E130" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="F130" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>661</v>
+        <v>665</v>
       </c>
     </row>
     <row r="131" spans="1:7">
       <c r="A131" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>316</v>
       </c>
       <c r="D131" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="E131" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="F131" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>662</v>
+        <v>666</v>
       </c>
     </row>
     <row r="132" spans="1:7">
       <c r="A132" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>317</v>
       </c>
       <c r="D132" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="E132" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="F132" t="s">
-        <v>566</v>
+        <v>569</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>663</v>
+        <v>667</v>
       </c>
     </row>
     <row r="133" spans="1:7">
       <c r="A133" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="134" spans="1:7">
       <c r="A134" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>318</v>
       </c>
       <c r="D134" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="F134" t="s">
-        <v>567</v>
+        <v>570</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>664</v>
+        <v>668</v>
       </c>
     </row>
     <row r="135" spans="1:7">
       <c r="A135" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>319</v>
       </c>
       <c r="D135" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="E135" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="F135" t="s">
-        <v>568</v>
+        <v>571</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>665</v>
+        <v>669</v>
       </c>
     </row>
     <row r="136" spans="1:7">
       <c r="A136" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B136" t="s">
         <v>217</v>
@@ -4964,58 +4961,58 @@
         <v>320</v>
       </c>
       <c r="D136" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="E136" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>666</v>
+        <v>670</v>
       </c>
     </row>
     <row r="137" spans="1:7">
       <c r="A137" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>321</v>
       </c>
       <c r="D137" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="E137" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="F137" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>667</v>
+        <v>671</v>
       </c>
     </row>
     <row r="138" spans="1:7">
       <c r="A138" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>322</v>
       </c>
       <c r="D138" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="E138" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="F138" t="s">
-        <v>570</v>
+        <v>573</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>668</v>
+        <v>672</v>
       </c>
     </row>
     <row r="139" spans="1:7">
       <c r="A139" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B139" t="s">
         <v>218</v>
@@ -5024,41 +5021,41 @@
         <v>322</v>
       </c>
       <c r="D139" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="E139" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="F139" t="s">
-        <v>570</v>
+        <v>573</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>668</v>
+        <v>672</v>
       </c>
     </row>
     <row r="140" spans="1:7">
       <c r="A140" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>323</v>
       </c>
       <c r="D140" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="E140" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="F140" t="s">
-        <v>571</v>
+        <v>574</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>669</v>
+        <v>673</v>
       </c>
     </row>
     <row r="141" spans="1:7">
       <c r="A141" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B141" t="s">
         <v>219</v>
@@ -5067,21 +5064,21 @@
         <v>323</v>
       </c>
       <c r="D141" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="E141" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="F141" t="s">
-        <v>571</v>
+        <v>574</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>669</v>
+        <v>673</v>
       </c>
     </row>
     <row r="142" spans="1:7">
       <c r="A142" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>324</v>
@@ -5089,7 +5086,7 @@
     </row>
     <row r="143" spans="1:7">
       <c r="A143" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>325</v>
@@ -5097,86 +5094,86 @@
     </row>
     <row r="144" spans="1:7">
       <c r="A144" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="145" spans="1:8">
+    <row r="145" spans="1:7">
       <c r="A145" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>327</v>
       </c>
       <c r="D145" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="E145" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="F145" t="s">
-        <v>572</v>
+        <v>575</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="146" spans="1:8">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7">
       <c r="A146" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>328</v>
       </c>
       <c r="D146" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="E146" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>671</v>
-      </c>
-    </row>
-    <row r="147" spans="1:8">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7">
       <c r="A147" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>329</v>
       </c>
       <c r="E147" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="F147" t="s">
-        <v>573</v>
+        <v>576</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>672</v>
-      </c>
-    </row>
-    <row r="148" spans="1:8">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7">
       <c r="A148" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>330</v>
       </c>
       <c r="D148" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="E148" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="G148" s="2" t="s">
-        <v>673</v>
-      </c>
-    </row>
-    <row r="149" spans="1:8">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7">
       <c r="A149" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B149" t="s">
         <v>220</v>
@@ -5185,307 +5182,321 @@
         <v>331</v>
       </c>
       <c r="D149" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="E149" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="F149" t="s">
-        <v>574</v>
+        <v>577</v>
       </c>
       <c r="G149" s="2" t="s">
-        <v>674</v>
-      </c>
-    </row>
-    <row r="150" spans="1:8">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7">
       <c r="A150" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>332</v>
       </c>
       <c r="D150" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="E150" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="F150" t="s">
-        <v>575</v>
+        <v>578</v>
       </c>
       <c r="G150" s="2" t="s">
-        <v>675</v>
-      </c>
-    </row>
-    <row r="151" spans="1:8">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7">
       <c r="A151" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C151" s="2" t="s">
         <v>333</v>
       </c>
       <c r="D151" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="E151" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="F151" t="s">
-        <v>576</v>
+        <v>579</v>
       </c>
       <c r="G151" s="2" t="s">
-        <v>676</v>
-      </c>
-    </row>
-    <row r="152" spans="1:8">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7">
       <c r="A152" t="s">
-        <v>158</v>
-      </c>
-      <c r="B152" t="s">
-        <v>221</v>
+        <v>157</v>
       </c>
       <c r="C152" s="2" t="s">
         <v>334</v>
       </c>
       <c r="D152" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="E152" t="s">
-        <v>483</v>
+        <v>485</v>
+      </c>
+      <c r="F152" t="s">
+        <v>580</v>
       </c>
       <c r="G152" s="2" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="153" spans="1:8">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7">
       <c r="A153" t="s">
+        <v>158</v>
+      </c>
+      <c r="B153" t="s">
+        <v>221</v>
+      </c>
+      <c r="C153" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="D153" t="s">
+        <v>388</v>
+      </c>
+      <c r="E153" t="s">
+        <v>486</v>
+      </c>
+      <c r="G153" s="2" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7">
+      <c r="A154" t="s">
         <v>159</v>
       </c>
-      <c r="B153" t="s">
+      <c r="B154" t="s">
         <v>222</v>
-      </c>
-      <c r="C153" s="2" t="s">
-        <v>334</v>
-      </c>
-      <c r="D153" t="s">
-        <v>386</v>
-      </c>
-      <c r="E153" t="s">
-        <v>483</v>
-      </c>
-      <c r="G153" s="2" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="154" spans="1:8">
-      <c r="A154" t="s">
-        <v>160</v>
       </c>
       <c r="C154" s="2" t="s">
         <v>335</v>
       </c>
       <c r="D154" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="E154" t="s">
-        <v>484</v>
-      </c>
-      <c r="F154" t="s">
-        <v>577</v>
+        <v>486</v>
       </c>
       <c r="G154" s="2" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="155" spans="1:8">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7">
       <c r="A155" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C155" s="2" t="s">
         <v>336</v>
       </c>
       <c r="D155" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="E155" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="F155" t="s">
-        <v>578</v>
+        <v>581</v>
       </c>
       <c r="G155" s="2" t="s">
-        <v>679</v>
-      </c>
-      <c r="H155" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="156" spans="1:8">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7">
       <c r="A156" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C156" s="2" t="s">
         <v>337</v>
       </c>
       <c r="D156" t="s">
-        <v>381</v>
+        <v>390</v>
       </c>
       <c r="E156" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="F156" t="s">
-        <v>579</v>
+        <v>582</v>
       </c>
       <c r="G156" s="2" t="s">
-        <v>680</v>
-      </c>
-    </row>
-    <row r="157" spans="1:8">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7">
       <c r="A157" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C157" s="2" t="s">
         <v>338</v>
       </c>
       <c r="D157" t="s">
-        <v>389</v>
+        <v>382</v>
       </c>
       <c r="E157" t="s">
-        <v>449</v>
+        <v>489</v>
+      </c>
+      <c r="F157" t="s">
+        <v>583</v>
       </c>
       <c r="G157" s="2" t="s">
-        <v>681</v>
-      </c>
-    </row>
-    <row r="158" spans="1:8">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7">
       <c r="A158" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C158" s="2" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="159" spans="1:8">
+      <c r="D158" t="s">
+        <v>391</v>
+      </c>
+      <c r="E158" t="s">
+        <v>451</v>
+      </c>
+      <c r="G158" s="2" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7">
       <c r="A159" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C159" s="2" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="160" spans="1:8">
+    <row r="160" spans="1:7">
       <c r="A160" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C160" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="D160" t="s">
-        <v>357</v>
-      </c>
-      <c r="E160" t="s">
-        <v>484</v>
-      </c>
-      <c r="F160" t="s">
-        <v>580</v>
-      </c>
-      <c r="G160" s="2" t="s">
-        <v>682</v>
-      </c>
-    </row>
-    <row r="161" spans="1:8">
+    </row>
+    <row r="161" spans="1:7">
       <c r="A161" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C161" s="2" t="s">
         <v>342</v>
       </c>
-    </row>
-    <row r="162" spans="1:8">
+      <c r="D161" t="s">
+        <v>358</v>
+      </c>
+      <c r="E161" t="s">
+        <v>487</v>
+      </c>
+      <c r="F161" t="s">
+        <v>584</v>
+      </c>
+      <c r="G161" s="2" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7">
       <c r="A162" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C162" s="2" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="163" spans="1:8">
+    <row r="163" spans="1:7">
       <c r="A163" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C163" s="2" t="s">
         <v>344</v>
       </c>
-      <c r="D163" t="s">
-        <v>352</v>
-      </c>
-      <c r="E163" t="s">
-        <v>487</v>
-      </c>
-      <c r="G163" s="2" t="s">
-        <v>683</v>
-      </c>
-    </row>
-    <row r="164" spans="1:8">
+    </row>
+    <row r="164" spans="1:7">
       <c r="A164" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C164" s="2" t="s">
         <v>345</v>
       </c>
       <c r="D164" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="E164" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="G164" s="2" t="s">
-        <v>684</v>
-      </c>
-      <c r="H164" t="s">
         <v>688</v>
       </c>
     </row>
-    <row r="165" spans="1:8">
+    <row r="165" spans="1:7">
       <c r="A165" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C165" s="2" t="s">
         <v>346</v>
       </c>
       <c r="D165" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="E165" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="G165" s="2" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="166" spans="1:8">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7">
       <c r="A166" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C166" s="2" t="s">
         <v>347</v>
       </c>
-    </row>
-    <row r="167" spans="1:8">
+      <c r="D166" t="s">
+        <v>353</v>
+      </c>
+      <c r="E166" t="s">
+        <v>492</v>
+      </c>
+      <c r="G166" s="2" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7">
       <c r="A167" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C167" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="D167" t="s">
-        <v>387</v>
-      </c>
-      <c r="E167" t="s">
-        <v>490</v>
-      </c>
-      <c r="F167" t="s">
-        <v>581</v>
+    </row>
+    <row r="168" spans="1:7">
+      <c r="A168" t="s">
+        <v>173</v>
+      </c>
+      <c r="C168" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="D168" t="s">
+        <v>389</v>
+      </c>
+      <c r="E168" t="s">
+        <v>493</v>
+      </c>
+      <c r="F168" t="s">
+        <v>585</v>
       </c>
     </row>
   </sheetData>
@@ -5765,19 +5776,21 @@
     <hyperlink ref="C157" r:id="rId273"/>
     <hyperlink ref="G157" r:id="rId274"/>
     <hyperlink ref="C158" r:id="rId275"/>
-    <hyperlink ref="C159" r:id="rId276"/>
-    <hyperlink ref="C160" r:id="rId277"/>
-    <hyperlink ref="G160" r:id="rId278"/>
+    <hyperlink ref="G158" r:id="rId276"/>
+    <hyperlink ref="C159" r:id="rId277"/>
+    <hyperlink ref="C160" r:id="rId278"/>
     <hyperlink ref="C161" r:id="rId279"/>
-    <hyperlink ref="C162" r:id="rId280"/>
-    <hyperlink ref="C163" r:id="rId281"/>
-    <hyperlink ref="G163" r:id="rId282"/>
+    <hyperlink ref="G161" r:id="rId280"/>
+    <hyperlink ref="C162" r:id="rId281"/>
+    <hyperlink ref="C163" r:id="rId282"/>
     <hyperlink ref="C164" r:id="rId283"/>
     <hyperlink ref="G164" r:id="rId284"/>
     <hyperlink ref="C165" r:id="rId285"/>
     <hyperlink ref="G165" r:id="rId286"/>
     <hyperlink ref="C166" r:id="rId287"/>
-    <hyperlink ref="C167" r:id="rId288"/>
+    <hyperlink ref="G166" r:id="rId288"/>
+    <hyperlink ref="C167" r:id="rId289"/>
+    <hyperlink ref="C168" r:id="rId290"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/selenium/Vietnam_Universities.xlsx
+++ b/selenium/Vietnam_Universities.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="417">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="266">
   <si>
     <t>Name</t>
   </si>
@@ -34,24 +34,15 @@
     <t>Trường Đại học Bà Rịa – Vũng Tàu</t>
   </si>
   <si>
-    <t>Trường Đại học Bà Rịa – Vũng Tàu (BVU)</t>
-  </si>
-  <si>
     <t>Trường Đại học Bình Dương</t>
   </si>
   <si>
-    <t>Trường Đại học Chu Văn An (DCA)</t>
-  </si>
-  <si>
     <t>Trường Đại học Công Thương Thành phố Hồ Chí Minh</t>
   </si>
   <si>
     <t>Trường Đại học Công nghiệp Vinh</t>
   </si>
   <si>
-    <t>Trường Đại học Công nghiệp Vinh (DCV)</t>
-  </si>
-  <si>
     <t>Trường Đại học Công nghiệp và Thương mại Hà Nội</t>
   </si>
   <si>
@@ -61,48 +52,24 @@
     <t>Trường Đại học Công nghệ Swinburne - FPT Việt Nam</t>
   </si>
   <si>
-    <t>Trường Đại học Công nghệ Sài Gòn (DSG)</t>
-  </si>
-  <si>
     <t>Trường Đại học Công nghệ Thành phố Hồ Chí Minh</t>
   </si>
   <si>
-    <t>Trường Đại học Công nghệ Thành phố Hồ Chí Minh (DKC)</t>
-  </si>
-  <si>
-    <t>Trường Đại học Công nghệ Vạn Xuân (DVX)</t>
-  </si>
-  <si>
     <t>Trường Đại học Công nghệ và Quản lý hữu nghị</t>
   </si>
   <si>
-    <t>Trường Đại học Công nghệ Đông Á (DDA)</t>
-  </si>
-  <si>
-    <t>Trường Đại học Công nghệ Đồng Nai (DCD)</t>
-  </si>
-  <si>
     <t>Trường Đại học Dược Hà Nội</t>
   </si>
   <si>
     <t>Trường Đại học FPT</t>
   </si>
   <si>
-    <t>Trường Đại học FPT (FPT)</t>
-  </si>
-  <si>
     <t>Trường Đại học Fulbright Việt Nam</t>
   </si>
   <si>
-    <t>Trường Đại học Fulbright Việt Nam (FUV)*</t>
-  </si>
-  <si>
     <t>Trường Đại học Gia Định</t>
   </si>
   <si>
-    <t>Trường Đại học Gia Định (GDU)</t>
-  </si>
-  <si>
     <t>Trường Đại học Giao thông Vận tải</t>
   </si>
   <si>
@@ -115,24 +82,15 @@
     <t>Trường Đại học Hoa Sen</t>
   </si>
   <si>
-    <t>Trường Đại học Hoa Sen (HSU)</t>
-  </si>
-  <si>
     <t>Trường Đại học Hà Nội</t>
   </si>
   <si>
     <t>Trường Đại học Hòa Bình</t>
   </si>
   <si>
-    <t>Trường Đại học Hòa Bình (ETU)</t>
-  </si>
-  <si>
     <t>Trường Đại học Hùng Vương Thành phố Hồ Chí Minh</t>
   </si>
   <si>
-    <t>Trường Đại học Hùng Vương Thành phố Hồ Chí Minh (DHV)</t>
-  </si>
-  <si>
     <t>Trường Đại học Hải Dương</t>
   </si>
   <si>
@@ -145,33 +103,21 @@
     <t>Trường Đại học Kinh doanh và Công nghệ Hà Nội</t>
   </si>
   <si>
-    <t>Trường Đại học Kinh tế Công nghiệp Long An (DLA)</t>
-  </si>
-  <si>
     <t>Trường Đại học Kinh tế – Kỹ thuật Bình Dương</t>
   </si>
   <si>
-    <t>Trường Đại học Kinh tế – Kỹ thuật Bình Dương (DKB)</t>
-  </si>
-  <si>
     <t>Trường Đại học Kinh tế – Kỹ thuật Công nghiệp</t>
   </si>
   <si>
     <t>Trường Đại học Kinh tế – Tài chính Thành phố Hồ Chí Minh</t>
   </si>
   <si>
-    <t>Trường Đại học Kinh tế – Tài chính Thành phố Hồ Chí Minh (UEF)</t>
-  </si>
-  <si>
     <t>Trường Đại học Kiến trúc Hà Nội</t>
   </si>
   <si>
     <t>Trường Đại học Kiến trúc Đà Nẵng</t>
   </si>
   <si>
-    <t>Trường Đại học Kiến trúc Đà Nẵng (KTD)</t>
-  </si>
-  <si>
     <t>Trường Đại học Kiểm sát</t>
   </si>
   <si>
@@ -190,15 +136,9 @@
     <t>Trường Đại học Lương Thế Vinh</t>
   </si>
   <si>
-    <t>Trường Đại học Lương Thế Vinh (DTV)</t>
-  </si>
-  <si>
     <t>Trường Đại học Lạc Hồng</t>
   </si>
   <si>
-    <t>Trường Đại học Lạc Hồng (DLH)</t>
-  </si>
-  <si>
     <t>Trường Đại học Mỏ – Địa chất</t>
   </si>
   <si>
@@ -220,90 +160,45 @@
     <t>Trường Đại học Mỹ tại Việt Nam (The American University in Vietnam)</t>
   </si>
   <si>
-    <t>Trường Đại học Nam Cần Thơ (DNC)</t>
-  </si>
-  <si>
     <t>Trường Đại học Ngoại ngữ – Tin học Thành phố Hồ Chí Minh</t>
   </si>
   <si>
-    <t>Trường Đại học Ngoại ngữ – Tin học Thành phố Hồ Chí Minh (DNT)</t>
-  </si>
-  <si>
     <t>Trường Đại học Ngoại thương</t>
   </si>
   <si>
     <t>Trường Đại học Nguyễn Trãi</t>
   </si>
   <si>
-    <t>Trường Đại học Nguyễn Trãi (NTU)</t>
-  </si>
-  <si>
     <t>Trường Đại học Nguyễn Tất Thành</t>
   </si>
   <si>
-    <t>Trường Đại học Nguyễn Tất Thành (NTT)</t>
-  </si>
-  <si>
     <t>Trường Đại học Nông Lâm Thành phố Hồ Chí Minh</t>
   </si>
   <si>
     <t>Trường Đại học Phan Châu Trinh</t>
   </si>
   <si>
-    <t>Trường Đại học Phan Thiết (DPT)</t>
-  </si>
-  <si>
-    <t>Trường Đại học Phenikaa (PKA)</t>
-  </si>
-  <si>
     <t>Trường Đại học Phòng cháy chữa cháy</t>
   </si>
   <si>
-    <t>Trường Đại học Phú Xuân (DPX)</t>
-  </si>
-  <si>
-    <t>Trường Đại học Phương Đông (DPD)</t>
-  </si>
-  <si>
-    <t>Trường Đại học Quang Trung (DQT)</t>
-  </si>
-  <si>
-    <t>Trường Đại học Quản lý và Công nghệ Hải Phòng (HPU)</t>
-  </si>
-  <si>
     <t>Trường Đại học Quản lý và Công nghệ Thành phố Hồ Chí Minh</t>
   </si>
   <si>
     <t>Trường Đại học Quốc tế Bắc Hà</t>
   </si>
   <si>
-    <t>Trường Đại học Quốc tế Bắc Hà (DBH)</t>
-  </si>
-  <si>
     <t>Trường Đại học Quốc tế Hồng Bàng</t>
   </si>
   <si>
-    <t>Trường Đại học Quốc tế Hồng Bàng (HIU)</t>
-  </si>
-  <si>
     <t>Trường Đại học Quốc tế Miền Đông</t>
   </si>
   <si>
-    <t>Trường Đại học Quốc tế Miền Đông (EIU)</t>
-  </si>
-  <si>
     <t>Trường Đại học Quốc tế RMIT Việt Nam</t>
   </si>
   <si>
-    <t>Trường Đại học Quốc tế RMIT Việt Nam (RMU)*</t>
-  </si>
-  <si>
     <t>Trường Đại học Quốc tế Sài Gòn</t>
   </si>
   <si>
-    <t>Trường Đại học Quốc tế Sài Gòn (SIU)</t>
-  </si>
-  <si>
     <t>Trường Đại học Sài Gòn</t>
   </si>
   <si>
@@ -337,15 +232,9 @@
     <t>Trường Đại học Thành Đô</t>
   </si>
   <si>
-    <t>Trường Đại học Thành Đô (TDD)</t>
-  </si>
-  <si>
     <t>Trường Đại học Thăng Long</t>
   </si>
   <si>
-    <t>Trường Đại học Thăng Long (DTL)</t>
-  </si>
-  <si>
     <t>Trường Đại học Thương mại</t>
   </si>
   <si>
@@ -367,42 +256,24 @@
     <t>Trường Đại học Tân Tạo</t>
   </si>
   <si>
-    <t>Trường Đại học Tân Tạo (TTU)</t>
-  </si>
-  <si>
     <t>Trường Đại học Tây Đô</t>
   </si>
   <si>
-    <t>Trường Đại học Tây Đô (DTD)</t>
-  </si>
-  <si>
     <t>Trường Đại học VinUni</t>
   </si>
   <si>
-    <t>Trường Đại học VinUni (VinUni)</t>
-  </si>
-  <si>
     <t>Trường Đại học Việt Đức[b]</t>
   </si>
   <si>
     <t>Trường Đại học Võ Trường Toản</t>
   </si>
   <si>
-    <t>Trường Đại học Võ Trường Toản (VTT)</t>
-  </si>
-  <si>
     <t>Trường Đại học Văn Hiến</t>
   </si>
   <si>
-    <t>Trường Đại học Văn Hiến (DVH)</t>
-  </si>
-  <si>
     <t>Trường Đại học Văn Lang</t>
   </si>
   <si>
-    <t>Trường Đại học Văn Lang (DVL)</t>
-  </si>
-  <si>
     <t>Trường Đại học Văn hoá Nghệ thuật Quân đội</t>
   </si>
   <si>
@@ -430,67 +301,34 @@
     <t>Trường Đại học Y tế Công cộng</t>
   </si>
   <si>
-    <t>Trường Đại học Yersin Đà Lạt (DYD)</t>
-  </si>
-  <si>
     <t>Trường Đại học Điện lực</t>
   </si>
   <si>
     <t>Trường Đại học Đông Đô</t>
   </si>
   <si>
-    <t>Trường Đại học Đông Đô (DDU)</t>
-  </si>
-  <si>
     <t>Trường Đại học Đại Nam</t>
   </si>
   <si>
-    <t>Trường Đại học Đại Nam (DDN)</t>
-  </si>
-  <si>
-    <t>Đại học Airlangga</t>
-  </si>
-  <si>
-    <t>Đại học Ateneo de Manila</t>
-  </si>
-  <si>
-    <t>Đại học Brunei Darussalam</t>
-  </si>
-  <si>
-    <t>Đại học Burapha</t>
+    <t>Trường đại học nước ngoài</t>
+  </si>
+  <si>
+    <t>Trường đại học trực thuộc tỉnh, thành phố trực thuộc trung ương</t>
+  </si>
+  <si>
+    <t>Trường đại học tư thục</t>
   </si>
   <si>
     <t>Đại học Bách khoa Hà Nội (HUST) Lĩnh vực: Kỹ thuật và công nghệ</t>
   </si>
   <si>
-    <t>Đại học Chiang Mai</t>
-  </si>
-  <si>
-    <t>Đại học Chulalongkorn</t>
-  </si>
-  <si>
     <t>Đại học Công nghiệp Hà Nội (HaUI)</t>
   </si>
   <si>
-    <t>Đại học Công nghệ Nanyang</t>
-  </si>
-  <si>
-    <t>Đại học Cần Thơ</t>
-  </si>
-  <si>
-    <t>Đại học De La Salle</t>
-  </si>
-  <si>
-    <t>Đại học Duy Tân (DDT)</t>
-  </si>
-  <si>
     <t>Đại học Duy Tân (DTU)</t>
   </si>
   <si>
-    <t>Đại học Gadjah Mada</t>
-  </si>
-  <si>
-    <t>Đại học Hoàng gia Phnôm Pênh</t>
+    <t>Đại học Hiện/ẩn mục Đại học</t>
   </si>
   <si>
     <t>Đại học Kinh tế Quốc dân (NEU) Lĩnh vực: Kinh tế và kinh doanh</t>
@@ -499,190 +337,28 @@
     <t>Đại học Kinh tế Thành phố Hồ Chí Minh (UEH) Lĩnh vực: Kinh tế và kinh doanh</t>
   </si>
   <si>
-    <t>Đại học Kinh tế và Luật Hoàng gia</t>
-  </si>
-  <si>
-    <t>Đại học Mahidol</t>
-  </si>
-  <si>
-    <t>Đại học Malaya</t>
-  </si>
-  <si>
     <t>Đại học Phenikaa</t>
   </si>
   <si>
-    <t>Đại học Prince of Songkla</t>
-  </si>
-  <si>
-    <t>Đại học Quốc gia Hà Nội</t>
-  </si>
-  <si>
-    <t>Đại học Quốc gia Lào</t>
-  </si>
-  <si>
-    <t>Đại học Quốc gia Thành phố Hồ Chí Minh</t>
-  </si>
-  <si>
     <t>Đại học Việt Nam</t>
   </si>
   <si>
-    <t>Đại học Yangon</t>
-  </si>
-  <si>
     <t>British University Vietnam</t>
   </si>
   <si>
-    <t>BVU</t>
-  </si>
-  <si>
-    <t>DCA</t>
-  </si>
-  <si>
-    <t>DCV</t>
-  </si>
-  <si>
-    <t>DSG</t>
-  </si>
-  <si>
-    <t>DKC</t>
-  </si>
-  <si>
-    <t>DVX</t>
-  </si>
-  <si>
-    <t>DDA</t>
-  </si>
-  <si>
-    <t>DCD</t>
-  </si>
-  <si>
-    <t>FPT</t>
-  </si>
-  <si>
-    <t>GDU</t>
-  </si>
-  <si>
-    <t>HSU</t>
-  </si>
-  <si>
-    <t>ETU</t>
-  </si>
-  <si>
-    <t>DHV</t>
-  </si>
-  <si>
-    <t>DLA</t>
-  </si>
-  <si>
-    <t>DKB</t>
-  </si>
-  <si>
-    <t>UEF</t>
-  </si>
-  <si>
-    <t>KTD</t>
-  </si>
-  <si>
-    <t>DTV</t>
-  </si>
-  <si>
-    <t>DLH</t>
-  </si>
-  <si>
     <t>The American University in Vietnam</t>
   </si>
   <si>
-    <t>DNC</t>
-  </si>
-  <si>
-    <t>DNT</t>
-  </si>
-  <si>
-    <t>NTU</t>
-  </si>
-  <si>
-    <t>NTT</t>
-  </si>
-  <si>
-    <t>DPT</t>
-  </si>
-  <si>
-    <t>PKA</t>
-  </si>
-  <si>
-    <t>DPX</t>
-  </si>
-  <si>
-    <t>DPD</t>
-  </si>
-  <si>
-    <t>DQT</t>
-  </si>
-  <si>
-    <t>HPU</t>
-  </si>
-  <si>
-    <t>DBH</t>
-  </si>
-  <si>
-    <t>HIU</t>
-  </si>
-  <si>
-    <t>EIU</t>
-  </si>
-  <si>
-    <t>SIU</t>
-  </si>
-  <si>
-    <t>TDD</t>
-  </si>
-  <si>
-    <t>DTL</t>
-  </si>
-  <si>
-    <t>TTU</t>
-  </si>
-  <si>
-    <t>DTD</t>
-  </si>
-  <si>
-    <t>VinUni</t>
-  </si>
-  <si>
-    <t>VTT</t>
-  </si>
-  <si>
-    <t>DVH</t>
-  </si>
-  <si>
-    <t>DVL</t>
-  </si>
-  <si>
-    <t>DYD</t>
-  </si>
-  <si>
-    <t>DDU</t>
-  </si>
-  <si>
-    <t>DDN</t>
-  </si>
-  <si>
     <t>HaUI</t>
   </si>
   <si>
-    <t>DDT</t>
-  </si>
-  <si>
     <t>DTU</t>
   </si>
   <si>
     <t>TS. Lê Quang Thành ThS. Vũ Đức Quang</t>
   </si>
   <si>
-    <t>TS. Đỗ Đoan Trang ( Phó Hiệu trưởng Thường trực ) PGS. TS. NGƯT. Lê Văn Cường ( Phó Hiệu trưởng NCKH )</t>
-  </si>
-  <si>
-    <t>TS. Vũ Đăng Minh ThS. Dương Văn Bá TS. Nguyễn Quốc Tư</t>
+    <t>TS. Đỗ Đoan Trang (Phó Hiệu trưởng Thường trực) PGS. TS. NGƯT. Lê Văn Cường (Phó Hiệu trưởng NCKH)</t>
   </si>
   <si>
     <t>-NGƯT. PGS. TS. Lê Thị Hồng Ánh - TS. Thái Doãn Thanh</t>
@@ -691,19 +367,10 @@
     <t>Nguyễn Thị Thu Hường Nguyễn Thu Phượng Nguyễn Quang Vinh</t>
   </si>
   <si>
-    <t>PGS . TS Cao Hào Thi</t>
-  </si>
-  <si>
     <t>PGS.TS. Bùi Xuân Lâm TS. Kiều Xuân Hùng TS. Nguyễn Xuân Hoàng Việt</t>
   </si>
   <si>
-    <t>TS . Nguyễn Lưu Thụy</t>
-  </si>
-  <si>
-    <t>Tiến sĩ Nguyễn Thuý Lan Chi, NCS Phan Võ Quỳnh Như</t>
-  </si>
-  <si>
-    <t>GS . TS . Nguyễn Hải Nam</t>
+    <t>GS.TS. Nguyễn Hải Nam</t>
   </si>
   <si>
     <t>TS. Nguyễn Khắc Thành</t>
@@ -736,16 +403,13 @@
     <t>chức vụ miễn nhiệm</t>
   </si>
   <si>
-    <t>PGS.TS. Đặng Thị Phương Phi TS. Đoàn Thị Hồng Ths. Huỳnh Văn Xê</t>
-  </si>
-  <si>
     <t>TS. Trần Đức Cân và TS. Nguyễn Ngọc Khương</t>
   </si>
   <si>
     <t>TS Đỗ Hữu Nguyên Lộc</t>
   </si>
   <si>
-    <t>PGS . TS. KTS. Lê Quân</t>
+    <t>PGS. TS. KTS. Lê Quân</t>
   </si>
   <si>
     <t>TS Phạm Anh Tuấn</t>
@@ -760,19 +424,19 @@
     <t>TS. Phạm Ngọc Thành</t>
   </si>
   <si>
-    <t>NGƯT . GS . TS . Phạm Văn Điển</t>
+    <t>NGƯT.GS.TS. Phạm Văn Điển</t>
   </si>
   <si>
     <t>PGS.TS.Mai Quốc Chánh</t>
   </si>
   <si>
-    <t>NGƯT . TS. Nguyễn Thị Thu Lan PGS. TS. Nguyễn Vũ Quỳnh PGS. TS. Nguyễn Thanh Lâm ThS. TS. Đỗ Khôi Nguyên</t>
+    <t>NGƯT. TS. Nguyễn Thị Thu Lan PGS. TS. Nguyễn Vũ Quỳnh PGS. TS. Nguyễn Thanh Lâm ThS. TS. Đỗ Khôi Nguyên</t>
   </si>
   <si>
     <t>GS.TS Trần Thanh Hải</t>
   </si>
   <si>
-    <t>PGS. TS . Nguyễn Thị Nhung</t>
+    <t>PGS. TS. Nguyễn Thị Nhung</t>
   </si>
   <si>
     <t>TS. GVCC. Lê Xuân Trường TS. Lê Nguyễn Quốc Khang</t>
@@ -784,9 +448,6 @@
     <t>TS. Đỗ Văn Dũng ThS. Lê Văn Duẩn</t>
   </si>
   <si>
-    <t>NGƯT .PGS.TS. Đào Duy Huân NGƯT.PGS.TS.BS. Phạm Hùng Lực TS. Trần Thị Thùy</t>
-  </si>
-  <si>
     <t>ThS. Phạm Thị Thanh Uyên</t>
   </si>
   <si>
@@ -805,25 +466,10 @@
     <t>GS.TS.BS Lê Văn Cường</t>
   </si>
   <si>
-    <t>PGS. TS Võ Khắc Thường</t>
-  </si>
-  <si>
-    <t>Trung tướng PGS . TS , Lê Quang Bốn</t>
-  </si>
-  <si>
-    <t>Nguyễn Tiến Đông</t>
-  </si>
-  <si>
-    <t>PGS . TS . Bùi Thiện Dụ</t>
-  </si>
-  <si>
-    <t>Ts. Tô Bá Lâm [ 1 ]</t>
-  </si>
-  <si>
-    <t>TS. Trần Thị Ngọc Liên Ths. Trần Hữu Trung</t>
-  </si>
-  <si>
-    <t>PGS .TS. Nguyễn Quốc Trung</t>
+    <t>Trung tướng PGS. TS, Lê Quang Bốn</t>
+  </si>
+  <si>
+    <t>PGS.TS.Nguyễn Quốc Trung</t>
   </si>
   <si>
     <t>PGS.TS Lê Khắc Cường PGS.TS Nguyễn Hữu Huy Nhựt Th.S Nguyễn Ngọc Tuấn Th.S Trần Thúy Trâm Quyên PGS.TS.DS Nguyễn Thị Thu Thủy CN Lương Thị Kim Chi CN Nguyễn Lê Anh Trung</t>
@@ -844,7 +490,7 @@
     <t>PGS.TS Nguyễn Văn Trào</t>
   </si>
   <si>
-    <t>PGS.TS. Lê Hiếu Giang</t>
+    <t>TS. Quách Thanh Hải PGS.TS. Châu Đình Thành</t>
   </si>
   <si>
     <t>TS. Bùi Trần Quỳnh Ngọc ThS. Nguyễn Ngọc Trung TS. Cao Anh Tuấn</t>
@@ -853,13 +499,13 @@
     <t>. TS Nguyễn Duy Quyết</t>
   </si>
   <si>
-    <t>PGS.TS . Trịnh Hữu Lộc</t>
+    <t>PGS.TS. Trịnh Hữu Lộc</t>
   </si>
   <si>
     <t>Phan Thị Thanh Thảo</t>
   </si>
   <si>
-    <t>GS . TS . Nguyễn Hoàng Việt PGS . TS . Hà Văn Sự PGS . TS . Nguyễn Đức Nhuận</t>
+    <t>GS.TS. Nguyễn Hoàng Việt PGS.TS. Hà Văn Sự PGS.TS. Nguyễn Đức Nhuận</t>
   </si>
   <si>
     <t>Võ Quốc Thắng</t>
@@ -877,10 +523,10 @@
     <t>TS.LS Nguyễn Tiến Dũng NGƯT.PGS.TS Võ Khắc Thường TS. Nguyễn Phước Quý Quang TS. Nguyễn Ngọc Minh</t>
   </si>
   <si>
-    <t>GS . TS . René Thiele</t>
-  </si>
-  <si>
-    <t>TS . Dương Đăng Khoa</t>
+    <t>GS. TS. René Thiele</t>
+  </si>
+  <si>
+    <t>TS. Dương Đăng Khoa</t>
   </si>
   <si>
     <t>PGS. TS. Trần Thị Mỹ Diệu</t>
@@ -889,16 +535,16 @@
     <t>Nhạc sĩ Hồ Trọng Tuấn</t>
   </si>
   <si>
-    <t>PGS . TS . Phạm Thị Thu Hương</t>
-  </si>
-  <si>
-    <t>TS . Lê Thị Thanh Thủy TS . Trịnh Đăng Khoa</t>
+    <t>PGS.TS. Phạm Thị Thu Hương</t>
+  </si>
+  <si>
+    <t>TS. Lê Thị Thanh Thủy TS. Trịnh Đăng Khoa</t>
   </si>
   <si>
     <t>PGS.TS Lê Thanh Hà</t>
   </si>
   <si>
-    <t>PGS . TS . Hoàng Tùng</t>
+    <t>PGS.TS. Hoàng Tùng</t>
   </si>
   <si>
     <t>TS.BS Phan Nguyễn Thanh Vân TS.BSCK2 Phạm Quốc Dũng PGS. TS. Dược sĩ Nguyễn Đăng Thoại</t>
@@ -907,7 +553,7 @@
     <t>PGS. TS. Nguyễn Văn Tuấn</t>
   </si>
   <si>
-    <t>GS . TS . Hoàng Văn Minh</t>
+    <t>GS. TS. Hoàng Văn Minh</t>
   </si>
   <si>
     <t>Đinh Văn Châu</t>
@@ -919,64 +565,25 @@
     <t>Cao Thị Hòa</t>
   </si>
   <si>
-    <t>Suchart Upatham</t>
-  </si>
-  <si>
-    <t>Pongsak Angkasith</t>
-  </si>
-  <si>
     <t>NGƯT.PGS.TS. Phạm Văn Bổng TS. Nguyễn Văn Thiện NGƯT.PGS.TS. Phạm Văn Đông</t>
   </si>
   <si>
-    <t>Christian Wolfrum</t>
-  </si>
-  <si>
-    <t>PGS.TS. Nguyễn Hiếu Trung GS.TS. Trần Ngọc Hải</t>
-  </si>
-  <si>
-    <t>Sư huynh Armin Luistro FSC</t>
-  </si>
-  <si>
-    <t>Prof. Dr. Pratikno, M.Soc.Sc., (2012-2017)</t>
-  </si>
-  <si>
-    <t>GS TS Chet Chealy</t>
-  </si>
-  <si>
     <t>Cố Thủ tướng Chính phủ Phạm Văn Đồng</t>
   </si>
   <si>
-    <t>Duli Yang Maha Mulia Paduka Seri Sultan Azlan Muhibbuddin Shah ibni Almarhum Sultan Yusuff Izzuddin Shah Ghafarullahu-Lah</t>
-  </si>
-  <si>
-    <t>Dr. Pho Kaung</t>
-  </si>
-  <si>
-    <t>http://www.bvu.edu.vn</t>
-  </si>
-  <si>
-    <t>http://www.bdu.edu.vn</t>
-  </si>
-  <si>
-    <t>https://ecouni.edu.vn/</t>
-  </si>
-  <si>
-    <t>https://huit.edu.vn</t>
+    <t>http://www.bvu.edu.vn/</t>
+  </si>
+  <si>
+    <t>http://www.bdu.edu.vn/</t>
+  </si>
+  <si>
+    <t>https://huit.edu.vn/</t>
   </si>
   <si>
     <t>http://hict.edu.vn/</t>
   </si>
   <si>
-    <t>http://www.stu.edu.vn</t>
-  </si>
-  <si>
-    <t>http://www.hutech.edu.vn</t>
-  </si>
-  <si>
-    <t>http://www.vxut.edu.vn</t>
-  </si>
-  <si>
-    <t>http://www.dntu.edu.vn/</t>
+    <t>http://www.hutech.edu.vn/</t>
   </si>
   <si>
     <t>http://www.hup.edu.vn/</t>
@@ -985,10 +592,10 @@
     <t>https://hanoi.fpt.edu.vn/</t>
   </si>
   <si>
-    <t>https://fulbright.edu.vn</t>
-  </si>
-  <si>
-    <t>https://giadinh.edu.vn</t>
+    <t>https://fulbright.edu.vn/</t>
+  </si>
+  <si>
+    <t>https://giadinh.edu.vn/</t>
   </si>
   <si>
     <t>https://www.utc.edu.vn/</t>
@@ -1000,13 +607,13 @@
     <t>https://www.hoasen.edu.vn/</t>
   </si>
   <si>
-    <t>https://www.hanu.edu.vn</t>
+    <t>https://www.hanu.edu.vn/</t>
   </si>
   <si>
     <t>https://daihochoabinh.edu.vn/</t>
   </si>
   <si>
-    <t>http://dhv.edu.vn</t>
+    <t>http://dhv.edu.vn/</t>
   </si>
   <si>
     <t>https://usth.edu.vn/</t>
@@ -1015,10 +622,7 @@
     <t>http://truongdaihockinhbac.edu.vn/</t>
   </si>
   <si>
-    <t>http://hubt.edu.vn</t>
-  </si>
-  <si>
-    <t>http://www.daihoclongan.edu.vn</t>
+    <t>http://hubt.edu.vn/</t>
   </si>
   <si>
     <t>http://www.uneti.edu.vn/</t>
@@ -1030,7 +634,7 @@
     <t>http://hau.edu.vn/</t>
   </si>
   <si>
-    <t>http://www.dau.edu.vn</t>
+    <t>http://www.dau.edu.vn/</t>
   </si>
   <si>
     <t>http://tks.edu.vn/</t>
@@ -1039,70 +643,52 @@
     <t>http://www.hmtu.edu.vn/</t>
   </si>
   <si>
-    <t>http://ulsa.edu.vn</t>
+    <t>http://ulsa.edu.vn/</t>
   </si>
   <si>
     <t>http://www.hlu.edu.vn/</t>
   </si>
   <si>
-    <t>http://www.vnuf.edu.vn</t>
+    <t>http://www.vnuf.edu.vn/</t>
   </si>
   <si>
     <t>https://ultv.edu.vn/</t>
   </si>
   <si>
-    <t>https://lhu.edu.vn</t>
-  </si>
-  <si>
-    <t>http://humg.edu.vn</t>
-  </si>
-  <si>
-    <t>http://www.hou.edu.vn</t>
-  </si>
-  <si>
-    <t>http://www.ou.edu.vn</t>
-  </si>
-  <si>
-    <t>https://uad.edu.vn</t>
+    <t>https://lhu.edu.vn/</t>
+  </si>
+  <si>
+    <t>http://humg.edu.vn/</t>
+  </si>
+  <si>
+    <t>http://www.hou.edu.vn/</t>
+  </si>
+  <si>
+    <t>http://www.ou.edu.vn/</t>
+  </si>
+  <si>
+    <t>https://uad.edu.vn/</t>
   </si>
   <si>
     <t>http://hcmufa.edu.vn/</t>
   </si>
   <si>
-    <t>https://www.nctu.edu.vn/</t>
-  </si>
-  <si>
     <t>http://www.huflit.edu.vn/</t>
   </si>
   <si>
-    <t>http://www.ftu.edu.vn</t>
-  </si>
-  <si>
-    <t>http://daihocnguyentrai.edu.vn</t>
-  </si>
-  <si>
-    <t>http://ntt.edu.vn</t>
+    <t>http://www.ftu.edu.vn/</t>
+  </si>
+  <si>
+    <t>http://daihocnguyentrai.edu.vn/</t>
+  </si>
+  <si>
+    <t>http://ntt.edu.vn/</t>
   </si>
   <si>
     <t>http://www.hcmuaf.edu.vn/</t>
   </si>
   <si>
-    <t>http://pctu.edu.vn</t>
-  </si>
-  <si>
-    <t>http://upt.edu.vn</t>
-  </si>
-  <si>
-    <t>https://www.phuxuan.edu.vn</t>
-  </si>
-  <si>
-    <t>http://www.phuongdong.edu.vn/</t>
-  </si>
-  <si>
-    <t>http://www.qtu.edu.vn</t>
-  </si>
-  <si>
-    <t>https://www.hpu.edu.vn/</t>
+    <t>http://pctu.edu.vn/</t>
   </si>
   <si>
     <t>https://biu.edu.vn/</t>
@@ -1111,10 +697,10 @@
     <t>http://hiu.vn/</t>
   </si>
   <si>
-    <t>http://www.rmit.edu.vn</t>
-  </si>
-  <si>
-    <t>http://www.sgu.edu.vn</t>
+    <t>http://www.rmit.edu.vn/</t>
+  </si>
+  <si>
+    <t>http://www.sgu.edu.vn/</t>
   </si>
   <si>
     <t>http://skda.edu.vn/</t>
@@ -1132,34 +718,34 @@
     <t>http://vuted.edu.vn/</t>
   </si>
   <si>
-    <t>http://hcmue.edu.vn</t>
+    <t>http://hcmue.edu.vn/</t>
   </si>
   <si>
     <t>http://dhsptdtthanoi.edu.vn/</t>
   </si>
   <si>
-    <t>http://www.upes.edu.vn</t>
-  </si>
-  <si>
-    <t>http://thanhdo.edu.vn</t>
+    <t>http://www.upes.edu.vn/</t>
+  </si>
+  <si>
+    <t>http://thanhdo.edu.vn/</t>
   </si>
   <si>
     <t>http://thanglong.edu.vn/</t>
   </si>
   <si>
-    <t>http://tmu.edu.vn</t>
-  </si>
-  <si>
-    <t>http://ush.edu.vn</t>
-  </si>
-  <si>
-    <t>http://tdmu.edu.vn</t>
-  </si>
-  <si>
-    <t>http://tlu.edu.vn</t>
-  </si>
-  <si>
-    <t>https://hunre.edu.vn</t>
+    <t>http://tmu.edu.vn/</t>
+  </si>
+  <si>
+    <t>http://ush.edu.vn/</t>
+  </si>
+  <si>
+    <t>http://tdmu.edu.vn/</t>
+  </si>
+  <si>
+    <t>http://tlu.edu.vn/</t>
+  </si>
+  <si>
+    <t>https://hunre.edu.vn/</t>
   </si>
   <si>
     <t>http://www.ttu.edu.vn/</t>
@@ -1171,100 +757,61 @@
     <t>https://vinuni.edu.vn/vi/trang-chu/</t>
   </si>
   <si>
-    <t>http://www.vgu.edu.vn</t>
-  </si>
-  <si>
-    <t>http://vttu.edu.vn</t>
+    <t>http://www.vgu.edu.vn/</t>
+  </si>
+  <si>
+    <t>http://vttu.edu.vn/</t>
   </si>
   <si>
     <t>www.vhu.edu.vn</t>
   </si>
   <si>
-    <t>http://www.vlu.edu.vn</t>
-  </si>
-  <si>
-    <t>http://www.huc.edu.vn</t>
-  </si>
-  <si>
-    <t>https://www.hcmuc.edu.vn</t>
-  </si>
-  <si>
-    <t>http://www.dvtdt.edu.vn</t>
+    <t>http://www.vlu.edu.vn/</t>
+  </si>
+  <si>
+    <t>http://www.huc.edu.vn/</t>
+  </si>
+  <si>
+    <t>https://www.hcmuc.edu.vn/</t>
+  </si>
+  <si>
+    <t>http://www.dvtdt.edu.vn/</t>
   </si>
   <si>
     <t>https://huce.edu.vn/</t>
   </si>
   <si>
-    <t>https://www.pnt.edu.vn</t>
-  </si>
-  <si>
-    <t>http://vmu.edu.vn</t>
+    <t>https://www.pnt.edu.vn/</t>
+  </si>
+  <si>
+    <t>http://vmu.edu.vn/</t>
   </si>
   <si>
     <t>http://www.huph.edu.vn/</t>
   </si>
   <si>
-    <t>http://www.yersin.edu.vn</t>
-  </si>
-  <si>
-    <t>http://www.epu.edu.vn</t>
+    <t>http://www.epu.edu.vn/</t>
   </si>
   <si>
     <t>http://hdiu.edu.vn/</t>
   </si>
   <si>
-    <t>http://www.dainam.edu.vn</t>
-  </si>
-  <si>
-    <t>http://www.buu.ac.th</t>
+    <t>http://www.dainam.edu.vn/</t>
   </si>
   <si>
     <t>http://www.hust.edu.vn/</t>
   </si>
   <si>
-    <t>http://www.cmu.ac.th</t>
-  </si>
-  <si>
-    <t>https://www.chula.ac.th</t>
-  </si>
-  <si>
     <t>https://www.haui.edu.vn/vn</t>
   </si>
   <si>
-    <t>https://ntu.edu.sg</t>
-  </si>
-  <si>
-    <t>http://ctu.edu.vn</t>
-  </si>
-  <si>
-    <t>http://www.dlsu.edu.ph</t>
-  </si>
-  <si>
     <t>http://www.duytan.edu.vn/</t>
   </si>
   <si>
-    <t>http://www.ugm.ac.id/</t>
-  </si>
-  <si>
-    <t>http://www.rupp.edu.kh</t>
-  </si>
-  <si>
     <t>http://www.neu.edu.vn/</t>
   </si>
   <si>
     <t>http://www.ueh.edu.vn/</t>
-  </si>
-  <si>
-    <t>http://www.um.edu.my/</t>
-  </si>
-  <si>
-    <t>http://www.vnu.edu.vn/</t>
-  </si>
-  <si>
-    <t>http://www.nuol.edu.la</t>
-  </si>
-  <si>
-    <t>http://vnuhcm.edu.vn</t>
   </si>
 </sst>
 </file>
@@ -1635,7 +1182,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D168"/>
+  <dimension ref="A1:D106"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1660,7 +1207,7 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>171</v>
+        <v>109</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1668,24 +1215,21 @@
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>220</v>
+        <v>113</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>312</v>
+        <v>185</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>6</v>
       </c>
-      <c r="B4" t="s">
-        <v>172</v>
-      </c>
       <c r="C4" t="s">
-        <v>220</v>
+        <v>114</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>312</v>
+        <v>186</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1693,35 +1237,26 @@
         <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>221</v>
+        <v>115</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>313</v>
+        <v>187</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
         <v>8</v>
       </c>
-      <c r="B6" t="s">
-        <v>173</v>
-      </c>
-      <c r="C6" t="s">
-        <v>222</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>314</v>
-      </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
         <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>223</v>
+        <v>116</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>315</v>
+        <v>188</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1733,19 +1268,16 @@
       <c r="A9" t="s">
         <v>11</v>
       </c>
-      <c r="B9" t="s">
-        <v>174</v>
-      </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
         <v>12</v>
       </c>
       <c r="C10" t="s">
-        <v>224</v>
+        <v>117</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>316</v>
+        <v>189</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1757,19 +1289,22 @@
       <c r="A12" t="s">
         <v>14</v>
       </c>
+      <c r="C12" t="s">
+        <v>118</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>190</v>
+      </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
         <v>15</v>
       </c>
-      <c r="B13" t="s">
-        <v>175</v>
-      </c>
       <c r="C13" t="s">
-        <v>225</v>
+        <v>119</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>317</v>
+        <v>191</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -1777,65 +1312,59 @@
         <v>16</v>
       </c>
       <c r="C14" t="s">
-        <v>226</v>
+        <v>120</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>318</v>
+        <v>192</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
         <v>17</v>
       </c>
-      <c r="B15" t="s">
-        <v>176</v>
-      </c>
       <c r="C15" t="s">
-        <v>226</v>
+        <v>121</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>318</v>
+        <v>193</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
         <v>18</v>
       </c>
-      <c r="B16" t="s">
-        <v>177</v>
-      </c>
       <c r="C16" t="s">
-        <v>227</v>
+        <v>122</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>319</v>
+        <v>194</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
         <v>19</v>
       </c>
+      <c r="C17" t="s">
+        <v>123</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>195</v>
+      </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
         <v>20</v>
       </c>
-      <c r="B18" t="s">
-        <v>178</v>
-      </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
         <v>21</v>
       </c>
-      <c r="B19" t="s">
-        <v>179</v>
-      </c>
       <c r="C19" t="s">
-        <v>228</v>
+        <v>124</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>320</v>
+        <v>196</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -1843,10 +1372,10 @@
         <v>22</v>
       </c>
       <c r="C20" t="s">
-        <v>229</v>
+        <v>125</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>321</v>
+        <v>197</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -1854,46 +1383,34 @@
         <v>23</v>
       </c>
       <c r="C21" t="s">
-        <v>230</v>
+        <v>126</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>322</v>
+        <v>198</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
         <v>24</v>
       </c>
-      <c r="B22" t="s">
-        <v>180</v>
-      </c>
       <c r="C22" t="s">
-        <v>230</v>
+        <v>127</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>322</v>
+        <v>199</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
         <v>25</v>
       </c>
-      <c r="C23" t="s">
-        <v>231</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>323</v>
-      </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
         <v>26</v>
       </c>
-      <c r="C24" t="s">
-        <v>231</v>
-      </c>
       <c r="D24" s="2" t="s">
-        <v>323</v>
+        <v>200</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -1901,76 +1418,67 @@
         <v>27</v>
       </c>
       <c r="C25" t="s">
-        <v>232</v>
+        <v>128</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>324</v>
+        <v>201</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
         <v>28</v>
       </c>
-      <c r="B26" t="s">
-        <v>181</v>
-      </c>
-      <c r="C26" t="s">
-        <v>232</v>
-      </c>
       <c r="D26" s="2" t="s">
-        <v>324</v>
+        <v>202</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
         <v>29</v>
       </c>
-      <c r="C27" t="s">
-        <v>233</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>325</v>
-      </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
         <v>30</v>
       </c>
       <c r="C28" t="s">
-        <v>234</v>
+        <v>129</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>326</v>
+        <v>203</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
         <v>31</v>
       </c>
+      <c r="C29" t="s">
+        <v>130</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>204</v>
+      </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" t="s">
         <v>32</v>
       </c>
       <c r="C30" t="s">
-        <v>235</v>
+        <v>131</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>327</v>
+        <v>205</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" t="s">
         <v>33</v>
       </c>
-      <c r="B31" t="s">
-        <v>182</v>
-      </c>
       <c r="C31" t="s">
-        <v>235</v>
+        <v>132</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>327</v>
+        <v>206</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -1978,10 +1486,10 @@
         <v>34</v>
       </c>
       <c r="C32" t="s">
-        <v>236</v>
+        <v>133</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>328</v>
+        <v>207</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -1989,62 +1497,62 @@
         <v>35</v>
       </c>
       <c r="C33" t="s">
-        <v>237</v>
+        <v>134</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>329</v>
+        <v>208</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" t="s">
         <v>36</v>
       </c>
-      <c r="B34" t="s">
-        <v>183</v>
-      </c>
       <c r="C34" t="s">
-        <v>237</v>
+        <v>135</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>329</v>
+        <v>209</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" t="s">
         <v>37</v>
       </c>
-      <c r="C35" t="s">
-        <v>238</v>
-      </c>
       <c r="D35" s="2" t="s">
-        <v>330</v>
+        <v>210</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" t="s">
         <v>38</v>
       </c>
-      <c r="B36" t="s">
-        <v>184</v>
-      </c>
       <c r="C36" t="s">
-        <v>238</v>
+        <v>136</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>330</v>
+        <v>211</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" t="s">
         <v>39</v>
       </c>
+      <c r="C37" t="s">
+        <v>137</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>212</v>
+      </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" t="s">
         <v>40</v>
       </c>
+      <c r="C38" t="s">
+        <v>138</v>
+      </c>
       <c r="D38" s="2" t="s">
-        <v>331</v>
+        <v>213</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -2052,81 +1560,78 @@
         <v>41</v>
       </c>
       <c r="C39" t="s">
-        <v>239</v>
+        <v>139</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>332</v>
+        <v>214</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" t="s">
         <v>42</v>
       </c>
+      <c r="C40" t="s">
+        <v>140</v>
+      </c>
       <c r="D40" s="2" t="s">
-        <v>333</v>
+        <v>215</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" t="s">
         <v>43</v>
       </c>
-      <c r="B41" t="s">
-        <v>185</v>
-      </c>
       <c r="C41" t="s">
-        <v>240</v>
+        <v>141</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>334</v>
+        <v>216</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" t="s">
         <v>44</v>
       </c>
+      <c r="C42" t="s">
+        <v>142</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>217</v>
+      </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" t="s">
         <v>45</v>
       </c>
-      <c r="B43" t="s">
-        <v>186</v>
+      <c r="C43" t="s">
+        <v>143</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" t="s">
         <v>46</v>
       </c>
-      <c r="C44" t="s">
-        <v>241</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>335</v>
-      </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" t="s">
         <v>47</v>
       </c>
-      <c r="C45" t="s">
-        <v>242</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>336</v>
+      <c r="B45" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" t="s">
         <v>48</v>
       </c>
-      <c r="B46" t="s">
-        <v>187</v>
-      </c>
       <c r="C46" t="s">
-        <v>242</v>
+        <v>144</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>336</v>
+        <v>219</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -2134,10 +1639,10 @@
         <v>49</v>
       </c>
       <c r="C47" t="s">
-        <v>243</v>
+        <v>145</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>337</v>
+        <v>220</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -2145,24 +1650,21 @@
         <v>50</v>
       </c>
       <c r="C48" t="s">
-        <v>244</v>
+        <v>146</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>338</v>
+        <v>221</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" t="s">
         <v>51</v>
       </c>
-      <c r="B49" t="s">
-        <v>188</v>
-      </c>
       <c r="C49" t="s">
-        <v>244</v>
+        <v>147</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>338</v>
+        <v>222</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -2170,10 +1672,10 @@
         <v>52</v>
       </c>
       <c r="C50" t="s">
-        <v>245</v>
+        <v>148</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>339</v>
+        <v>223</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -2181,10 +1683,10 @@
         <v>53</v>
       </c>
       <c r="C51" t="s">
-        <v>246</v>
+        <v>149</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>340</v>
+        <v>224</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -2192,29 +1694,23 @@
         <v>54</v>
       </c>
       <c r="C52" t="s">
-        <v>247</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>341</v>
+        <v>150</v>
       </c>
     </row>
     <row r="53" spans="1:4">
       <c r="A53" t="s">
         <v>55</v>
       </c>
-      <c r="D53" s="2" t="s">
-        <v>342</v>
-      </c>
     </row>
     <row r="54" spans="1:4">
       <c r="A54" t="s">
         <v>56</v>
       </c>
       <c r="C54" t="s">
-        <v>248</v>
+        <v>151</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>343</v>
+        <v>225</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -2222,60 +1718,42 @@
         <v>57</v>
       </c>
       <c r="C55" t="s">
-        <v>249</v>
+        <v>152</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>344</v>
+        <v>226</v>
       </c>
     </row>
     <row r="56" spans="1:4">
       <c r="A56" t="s">
         <v>58</v>
       </c>
-      <c r="B56" t="s">
-        <v>189</v>
-      </c>
-      <c r="C56" t="s">
-        <v>249</v>
-      </c>
-      <c r="D56" s="2" t="s">
-        <v>344</v>
-      </c>
     </row>
     <row r="57" spans="1:4">
       <c r="A57" t="s">
         <v>59</v>
       </c>
       <c r="C57" t="s">
-        <v>250</v>
+        <v>153</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>345</v>
+        <v>227</v>
       </c>
     </row>
     <row r="58" spans="1:4">
       <c r="A58" t="s">
         <v>60</v>
       </c>
-      <c r="B58" t="s">
-        <v>190</v>
-      </c>
-      <c r="C58" t="s">
-        <v>250</v>
-      </c>
-      <c r="D58" s="2" t="s">
-        <v>345</v>
-      </c>
     </row>
     <row r="59" spans="1:4">
       <c r="A59" t="s">
         <v>61</v>
       </c>
       <c r="C59" t="s">
-        <v>251</v>
+        <v>154</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>346</v>
+        <v>228</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -2283,10 +1761,10 @@
         <v>62</v>
       </c>
       <c r="C60" t="s">
-        <v>252</v>
+        <v>155</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>347</v>
+        <v>229</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -2294,10 +1772,10 @@
         <v>63</v>
       </c>
       <c r="C61" t="s">
-        <v>253</v>
+        <v>156</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>348</v>
+        <v>230</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -2305,10 +1783,10 @@
         <v>64</v>
       </c>
       <c r="C62" t="s">
-        <v>254</v>
+        <v>157</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>349</v>
+        <v>231</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -2316,37 +1794,34 @@
         <v>65</v>
       </c>
       <c r="C63" t="s">
-        <v>255</v>
+        <v>158</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>350</v>
+        <v>232</v>
       </c>
     </row>
     <row r="64" spans="1:4">
       <c r="A64" t="s">
         <v>66</v>
       </c>
+      <c r="D64" s="2" t="s">
+        <v>233</v>
+      </c>
     </row>
     <row r="65" spans="1:4">
       <c r="A65" t="s">
         <v>67</v>
       </c>
-      <c r="B65" t="s">
-        <v>191</v>
-      </c>
     </row>
     <row r="66" spans="1:4">
       <c r="A66" t="s">
         <v>68</v>
       </c>
-      <c r="B66" t="s">
-        <v>192</v>
-      </c>
       <c r="C66" t="s">
-        <v>256</v>
+        <v>159</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>351</v>
+        <v>234</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -2354,24 +1829,21 @@
         <v>69</v>
       </c>
       <c r="C67" t="s">
-        <v>257</v>
+        <v>160</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>352</v>
+        <v>235</v>
       </c>
     </row>
     <row r="68" spans="1:4">
       <c r="A68" t="s">
         <v>70</v>
       </c>
-      <c r="B68" t="s">
-        <v>193</v>
-      </c>
       <c r="C68" t="s">
-        <v>257</v>
+        <v>161</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>352</v>
+        <v>236</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -2379,35 +1851,29 @@
         <v>71</v>
       </c>
       <c r="C69" t="s">
-        <v>258</v>
+        <v>162</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>353</v>
+        <v>237</v>
       </c>
     </row>
     <row r="70" spans="1:4">
       <c r="A70" t="s">
         <v>72</v>
       </c>
-      <c r="C70" t="s">
-        <v>259</v>
-      </c>
       <c r="D70" s="2" t="s">
-        <v>354</v>
+        <v>238</v>
       </c>
     </row>
     <row r="71" spans="1:4">
       <c r="A71" t="s">
         <v>73</v>
       </c>
-      <c r="B71" t="s">
-        <v>194</v>
-      </c>
       <c r="C71" t="s">
-        <v>259</v>
+        <v>163</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>354</v>
+        <v>239</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -2415,24 +1881,21 @@
         <v>74</v>
       </c>
       <c r="C72" t="s">
-        <v>260</v>
+        <v>164</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>355</v>
+        <v>240</v>
       </c>
     </row>
     <row r="73" spans="1:4">
       <c r="A73" t="s">
         <v>75</v>
       </c>
-      <c r="B73" t="s">
-        <v>195</v>
-      </c>
       <c r="C73" t="s">
-        <v>260</v>
+        <v>165</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>355</v>
+        <v>241</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -2440,43 +1903,34 @@
         <v>76</v>
       </c>
       <c r="C74" t="s">
-        <v>261</v>
+        <v>166</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>356</v>
+        <v>242</v>
       </c>
     </row>
     <row r="75" spans="1:4">
       <c r="A75" t="s">
         <v>77</v>
       </c>
-      <c r="C75" t="s">
-        <v>262</v>
-      </c>
-      <c r="D75" s="2" t="s">
-        <v>357</v>
-      </c>
     </row>
     <row r="76" spans="1:4">
       <c r="A76" t="s">
         <v>78</v>
       </c>
-      <c r="B76" t="s">
-        <v>196</v>
-      </c>
       <c r="C76" t="s">
-        <v>263</v>
+        <v>167</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>358</v>
+        <v>243</v>
       </c>
     </row>
     <row r="77" spans="1:4">
       <c r="A77" t="s">
         <v>79</v>
       </c>
-      <c r="B77" t="s">
-        <v>197</v>
+      <c r="D77" s="2" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -2484,93 +1938,78 @@
         <v>80</v>
       </c>
       <c r="C78" t="s">
-        <v>264</v>
+        <v>168</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="79" spans="1:4">
       <c r="A79" t="s">
         <v>81</v>
       </c>
-      <c r="B79" t="s">
-        <v>198</v>
-      </c>
-      <c r="C79" t="s">
-        <v>265</v>
-      </c>
       <c r="D79" s="2" t="s">
-        <v>359</v>
+        <v>246</v>
       </c>
     </row>
     <row r="80" spans="1:4">
       <c r="A80" t="s">
         <v>82</v>
       </c>
-      <c r="B80" t="s">
-        <v>199</v>
-      </c>
       <c r="C80" t="s">
-        <v>266</v>
+        <v>169</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>360</v>
+        <v>247</v>
       </c>
     </row>
     <row r="81" spans="1:4">
       <c r="A81" t="s">
         <v>83</v>
       </c>
-      <c r="B81" t="s">
-        <v>200</v>
-      </c>
       <c r="C81" t="s">
-        <v>267</v>
+        <v>170</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>361</v>
+        <v>248</v>
       </c>
     </row>
     <row r="82" spans="1:4">
       <c r="A82" t="s">
         <v>84</v>
       </c>
-      <c r="B82" t="s">
-        <v>201</v>
-      </c>
-      <c r="C82" t="s">
-        <v>268</v>
-      </c>
-      <c r="D82" s="2" t="s">
-        <v>362</v>
+      <c r="D82" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="83" spans="1:4">
       <c r="A83" t="s">
         <v>85</v>
       </c>
+      <c r="C83" t="s">
+        <v>171</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>250</v>
+      </c>
     </row>
     <row r="84" spans="1:4">
       <c r="A84" t="s">
         <v>86</v>
       </c>
       <c r="C84" t="s">
-        <v>269</v>
-      </c>
-      <c r="D84" s="2" t="s">
-        <v>363</v>
+        <v>172</v>
       </c>
     </row>
     <row r="85" spans="1:4">
       <c r="A85" t="s">
         <v>87</v>
       </c>
-      <c r="B85" t="s">
-        <v>202</v>
-      </c>
       <c r="C85" t="s">
-        <v>269</v>
+        <v>173</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>363</v>
+        <v>251</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -2578,72 +2017,81 @@
         <v>88</v>
       </c>
       <c r="C86" t="s">
-        <v>270</v>
+        <v>174</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>364</v>
+        <v>252</v>
       </c>
     </row>
     <row r="87" spans="1:4">
       <c r="A87" t="s">
         <v>89</v>
       </c>
-      <c r="B87" t="s">
-        <v>203</v>
-      </c>
       <c r="C87" t="s">
-        <v>270</v>
+        <v>175</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>364</v>
+        <v>253</v>
       </c>
     </row>
     <row r="88" spans="1:4">
       <c r="A88" t="s">
         <v>90</v>
       </c>
+      <c r="C88" t="s">
+        <v>176</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>254</v>
+      </c>
     </row>
     <row r="89" spans="1:4">
       <c r="A89" t="s">
         <v>91</v>
       </c>
-      <c r="B89" t="s">
-        <v>204</v>
+      <c r="C89" t="s">
+        <v>177</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="90" spans="1:4">
       <c r="A90" t="s">
         <v>92</v>
       </c>
-      <c r="C90" t="s">
-        <v>271</v>
-      </c>
-      <c r="D90" s="2" t="s">
-        <v>365</v>
-      </c>
     </row>
     <row r="91" spans="1:4">
       <c r="A91" t="s">
         <v>93</v>
       </c>
       <c r="C91" t="s">
-        <v>271</v>
+        <v>178</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>365</v>
+        <v>256</v>
       </c>
     </row>
     <row r="92" spans="1:4">
       <c r="A92" t="s">
         <v>94</v>
       </c>
+      <c r="C92" t="s">
+        <v>179</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>257</v>
+      </c>
     </row>
     <row r="93" spans="1:4">
       <c r="A93" t="s">
         <v>95</v>
       </c>
-      <c r="B93" t="s">
-        <v>205</v>
+      <c r="C93" t="s">
+        <v>180</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -2651,10 +2099,10 @@
         <v>96</v>
       </c>
       <c r="C94" t="s">
-        <v>272</v>
+        <v>181</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>366</v>
+        <v>259</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -2662,729 +2110,92 @@
         <v>97</v>
       </c>
       <c r="C95" t="s">
-        <v>273</v>
+        <v>182</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>367</v>
+        <v>260</v>
       </c>
     </row>
     <row r="96" spans="1:4">
       <c r="A96" t="s">
         <v>98</v>
       </c>
-      <c r="C96" t="s">
-        <v>274</v>
-      </c>
-      <c r="D96" s="2" t="s">
-        <v>368</v>
-      </c>
     </row>
     <row r="97" spans="1:4">
       <c r="A97" t="s">
         <v>99</v>
       </c>
-      <c r="C97" t="s">
-        <v>275</v>
-      </c>
-      <c r="D97" s="2" t="s">
-        <v>369</v>
-      </c>
     </row>
     <row r="98" spans="1:4">
       <c r="A98" t="s">
         <v>100</v>
       </c>
-      <c r="C98" t="s">
-        <v>276</v>
-      </c>
-      <c r="D98" s="2" t="s">
-        <v>370</v>
-      </c>
     </row>
     <row r="99" spans="1:4">
       <c r="A99" t="s">
         <v>101</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>371</v>
+        <v>261</v>
       </c>
     </row>
     <row r="100" spans="1:4">
       <c r="A100" t="s">
         <v>102</v>
       </c>
+      <c r="B100" t="s">
+        <v>111</v>
+      </c>
+      <c r="C100" t="s">
+        <v>183</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>262</v>
+      </c>
     </row>
     <row r="101" spans="1:4">
       <c r="A101" t="s">
         <v>103</v>
       </c>
-      <c r="C101" t="s">
-        <v>277</v>
+      <c r="B101" t="s">
+        <v>112</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>372</v>
+        <v>263</v>
       </c>
     </row>
     <row r="102" spans="1:4">
       <c r="A102" t="s">
         <v>104</v>
       </c>
-      <c r="C102" t="s">
-        <v>278</v>
-      </c>
-      <c r="D102" s="2" t="s">
-        <v>373</v>
-      </c>
     </row>
     <row r="103" spans="1:4">
       <c r="A103" t="s">
         <v>105</v>
       </c>
       <c r="C103" t="s">
-        <v>279</v>
+        <v>184</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>374</v>
+        <v>264</v>
       </c>
     </row>
     <row r="104" spans="1:4">
       <c r="A104" t="s">
         <v>106</v>
       </c>
-      <c r="C104" t="s">
-        <v>280</v>
-      </c>
       <c r="D104" s="2" t="s">
-        <v>375</v>
+        <v>265</v>
       </c>
     </row>
     <row r="105" spans="1:4">
       <c r="A105" t="s">
         <v>107</v>
       </c>
-      <c r="B105" t="s">
-        <v>206</v>
-      </c>
-      <c r="C105" t="s">
-        <v>280</v>
-      </c>
-      <c r="D105" s="2" t="s">
-        <v>375</v>
-      </c>
     </row>
     <row r="106" spans="1:4">
       <c r="A106" t="s">
         <v>108</v>
-      </c>
-      <c r="D106" s="2" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4">
-      <c r="A107" t="s">
-        <v>109</v>
-      </c>
-      <c r="B107" t="s">
-        <v>207</v>
-      </c>
-      <c r="D107" s="2" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4">
-      <c r="A108" t="s">
-        <v>110</v>
-      </c>
-      <c r="C108" t="s">
-        <v>281</v>
-      </c>
-      <c r="D108" s="2" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4">
-      <c r="A109" t="s">
-        <v>111</v>
-      </c>
-      <c r="C109" t="s">
-        <v>282</v>
-      </c>
-      <c r="D109" s="2" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4">
-      <c r="A110" t="s">
-        <v>112</v>
-      </c>
-      <c r="C110" t="s">
-        <v>283</v>
-      </c>
-      <c r="D110" s="2" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4">
-      <c r="A111" t="s">
-        <v>113</v>
-      </c>
-      <c r="C111" t="s">
-        <v>284</v>
-      </c>
-      <c r="D111" s="2" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4">
-      <c r="A112" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4">
-      <c r="A113" t="s">
-        <v>115</v>
-      </c>
-      <c r="C113" t="s">
-        <v>285</v>
-      </c>
-      <c r="D113" s="2" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4">
-      <c r="A114" t="s">
-        <v>116</v>
-      </c>
-      <c r="D114" s="2" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4">
-      <c r="A115" t="s">
-        <v>117</v>
-      </c>
-      <c r="B115" t="s">
-        <v>208</v>
-      </c>
-      <c r="D115" s="2" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4">
-      <c r="A116" t="s">
-        <v>118</v>
-      </c>
-      <c r="C116" t="s">
-        <v>286</v>
-      </c>
-      <c r="D116" s="2" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4">
-      <c r="A117" t="s">
-        <v>119</v>
-      </c>
-      <c r="B117" t="s">
-        <v>209</v>
-      </c>
-      <c r="C117" t="s">
-        <v>286</v>
-      </c>
-      <c r="D117" s="2" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4">
-      <c r="A118" t="s">
-        <v>120</v>
-      </c>
-      <c r="D118" s="2" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4">
-      <c r="A119" t="s">
-        <v>121</v>
-      </c>
-      <c r="B119" t="s">
-        <v>210</v>
-      </c>
-      <c r="D119" s="2" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4">
-      <c r="A120" t="s">
-        <v>122</v>
-      </c>
-      <c r="C120" t="s">
-        <v>287</v>
-      </c>
-      <c r="D120" s="2" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4">
-      <c r="A121" t="s">
-        <v>123</v>
-      </c>
-      <c r="C121" t="s">
-        <v>288</v>
-      </c>
-      <c r="D121" s="2" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4">
-      <c r="A122" t="s">
-        <v>124</v>
-      </c>
-      <c r="B122" t="s">
-        <v>211</v>
-      </c>
-      <c r="C122" t="s">
-        <v>288</v>
-      </c>
-      <c r="D122" s="2" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4">
-      <c r="A123" t="s">
-        <v>125</v>
-      </c>
-      <c r="D123" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4">
-      <c r="A124" t="s">
-        <v>126</v>
-      </c>
-      <c r="B124" t="s">
-        <v>212</v>
-      </c>
-      <c r="D124" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4">
-      <c r="A125" t="s">
-        <v>127</v>
-      </c>
-      <c r="C125" t="s">
-        <v>289</v>
-      </c>
-      <c r="D125" s="2" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="126" spans="1:4">
-      <c r="A126" t="s">
-        <v>128</v>
-      </c>
-      <c r="B126" t="s">
-        <v>213</v>
-      </c>
-      <c r="C126" t="s">
-        <v>289</v>
-      </c>
-      <c r="D126" s="2" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4">
-      <c r="A127" t="s">
-        <v>129</v>
-      </c>
-      <c r="C127" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="128" spans="1:4">
-      <c r="A128" t="s">
-        <v>130</v>
-      </c>
-      <c r="C128" t="s">
-        <v>291</v>
-      </c>
-      <c r="D128" s="2" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="129" spans="1:4">
-      <c r="A129" t="s">
-        <v>131</v>
-      </c>
-      <c r="C129" t="s">
-        <v>292</v>
-      </c>
-      <c r="D129" s="2" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="130" spans="1:4">
-      <c r="A130" t="s">
-        <v>132</v>
-      </c>
-      <c r="C130" t="s">
-        <v>293</v>
-      </c>
-      <c r="D130" s="2" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="131" spans="1:4">
-      <c r="A131" t="s">
-        <v>133</v>
-      </c>
-      <c r="C131" t="s">
-        <v>294</v>
-      </c>
-      <c r="D131" s="2" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="132" spans="1:4">
-      <c r="A132" t="s">
-        <v>134</v>
-      </c>
-      <c r="C132" t="s">
-        <v>295</v>
-      </c>
-      <c r="D132" s="2" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="133" spans="1:4">
-      <c r="A133" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="134" spans="1:4">
-      <c r="A134" t="s">
-        <v>136</v>
-      </c>
-      <c r="C134" t="s">
-        <v>296</v>
-      </c>
-      <c r="D134" s="2" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="135" spans="1:4">
-      <c r="A135" t="s">
-        <v>137</v>
-      </c>
-      <c r="C135" t="s">
-        <v>297</v>
-      </c>
-      <c r="D135" s="2" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="136" spans="1:4">
-      <c r="A136" t="s">
-        <v>138</v>
-      </c>
-      <c r="B136" t="s">
-        <v>214</v>
-      </c>
-      <c r="D136" s="2" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="137" spans="1:4">
-      <c r="A137" t="s">
-        <v>139</v>
-      </c>
-      <c r="C137" t="s">
-        <v>298</v>
-      </c>
-      <c r="D137" s="2" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="138" spans="1:4">
-      <c r="A138" t="s">
-        <v>140</v>
-      </c>
-      <c r="C138" t="s">
-        <v>299</v>
-      </c>
-      <c r="D138" s="2" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="139" spans="1:4">
-      <c r="A139" t="s">
-        <v>141</v>
-      </c>
-      <c r="B139" t="s">
-        <v>215</v>
-      </c>
-      <c r="C139" t="s">
-        <v>299</v>
-      </c>
-      <c r="D139" s="2" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="140" spans="1:4">
-      <c r="A140" t="s">
-        <v>142</v>
-      </c>
-      <c r="C140" t="s">
-        <v>300</v>
-      </c>
-      <c r="D140" s="2" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="141" spans="1:4">
-      <c r="A141" t="s">
-        <v>143</v>
-      </c>
-      <c r="B141" t="s">
-        <v>216</v>
-      </c>
-      <c r="C141" t="s">
-        <v>300</v>
-      </c>
-      <c r="D141" s="2" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="142" spans="1:4">
-      <c r="A142" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="143" spans="1:4">
-      <c r="A143" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="144" spans="1:4">
-      <c r="A144" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="145" spans="1:4">
-      <c r="A145" t="s">
-        <v>147</v>
-      </c>
-      <c r="C145" t="s">
-        <v>301</v>
-      </c>
-      <c r="D145" s="2" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="146" spans="1:4">
-      <c r="A146" t="s">
-        <v>148</v>
-      </c>
-      <c r="D146" s="2" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="147" spans="1:4">
-      <c r="A147" t="s">
-        <v>149</v>
-      </c>
-      <c r="C147" t="s">
-        <v>302</v>
-      </c>
-      <c r="D147" s="2" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="148" spans="1:4">
-      <c r="A148" t="s">
-        <v>150</v>
-      </c>
-      <c r="D148" s="2" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="149" spans="1:4">
-      <c r="A149" t="s">
-        <v>151</v>
-      </c>
-      <c r="B149" t="s">
-        <v>217</v>
-      </c>
-      <c r="C149" t="s">
-        <v>303</v>
-      </c>
-      <c r="D149" s="2" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="150" spans="1:4">
-      <c r="A150" t="s">
-        <v>152</v>
-      </c>
-      <c r="C150" t="s">
-        <v>304</v>
-      </c>
-      <c r="D150" s="2" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="151" spans="1:4">
-      <c r="A151" t="s">
-        <v>153</v>
-      </c>
-      <c r="C151" t="s">
-        <v>305</v>
-      </c>
-      <c r="D151" s="2" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="152" spans="1:4">
-      <c r="A152" t="s">
-        <v>154</v>
-      </c>
-      <c r="C152" t="s">
-        <v>306</v>
-      </c>
-      <c r="D152" s="2" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="153" spans="1:4">
-      <c r="A153" t="s">
-        <v>155</v>
-      </c>
-      <c r="B153" t="s">
-        <v>218</v>
-      </c>
-      <c r="D153" s="2" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="154" spans="1:4">
-      <c r="A154" t="s">
-        <v>156</v>
-      </c>
-      <c r="B154" t="s">
-        <v>219</v>
-      </c>
-      <c r="D154" s="2" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="155" spans="1:4">
-      <c r="A155" t="s">
-        <v>157</v>
-      </c>
-      <c r="C155" t="s">
-        <v>307</v>
-      </c>
-      <c r="D155" s="2" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="156" spans="1:4">
-      <c r="A156" t="s">
-        <v>158</v>
-      </c>
-      <c r="C156" t="s">
-        <v>308</v>
-      </c>
-      <c r="D156" s="2" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="157" spans="1:4">
-      <c r="A157" t="s">
-        <v>159</v>
-      </c>
-      <c r="C157" t="s">
-        <v>309</v>
-      </c>
-      <c r="D157" s="2" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="158" spans="1:4">
-      <c r="A158" t="s">
-        <v>160</v>
-      </c>
-      <c r="D158" s="2" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="159" spans="1:4">
-      <c r="A159" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="160" spans="1:4">
-      <c r="A160" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="161" spans="1:4">
-      <c r="A161" t="s">
-        <v>163</v>
-      </c>
-      <c r="C161" t="s">
-        <v>310</v>
-      </c>
-      <c r="D161" s="2" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="162" spans="1:4">
-      <c r="A162" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="163" spans="1:4">
-      <c r="A163" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="164" spans="1:4">
-      <c r="A164" t="s">
-        <v>166</v>
-      </c>
-      <c r="D164" s="2" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="165" spans="1:4">
-      <c r="A165" t="s">
-        <v>167</v>
-      </c>
-      <c r="D165" s="2" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="166" spans="1:4">
-      <c r="A166" t="s">
-        <v>168</v>
-      </c>
-      <c r="D166" s="2" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="167" spans="1:4">
-      <c r="A167" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="168" spans="1:4">
-      <c r="A168" t="s">
-        <v>170</v>
-      </c>
-      <c r="C168" t="s">
-        <v>311</v>
       </c>
     </row>
   </sheetData>
@@ -3392,23 +2203,23 @@
     <hyperlink ref="D3" r:id="rId1"/>
     <hyperlink ref="D4" r:id="rId2"/>
     <hyperlink ref="D5" r:id="rId3"/>
-    <hyperlink ref="D6" r:id="rId4"/>
-    <hyperlink ref="D7" r:id="rId5"/>
-    <hyperlink ref="D10" r:id="rId6"/>
+    <hyperlink ref="D7" r:id="rId4"/>
+    <hyperlink ref="D10" r:id="rId5"/>
+    <hyperlink ref="D12" r:id="rId6"/>
     <hyperlink ref="D13" r:id="rId7"/>
     <hyperlink ref="D14" r:id="rId8"/>
     <hyperlink ref="D15" r:id="rId9"/>
     <hyperlink ref="D16" r:id="rId10"/>
-    <hyperlink ref="D19" r:id="rId11"/>
-    <hyperlink ref="D20" r:id="rId12"/>
-    <hyperlink ref="D21" r:id="rId13"/>
-    <hyperlink ref="D22" r:id="rId14"/>
-    <hyperlink ref="D23" r:id="rId15"/>
+    <hyperlink ref="D17" r:id="rId11"/>
+    <hyperlink ref="D19" r:id="rId12"/>
+    <hyperlink ref="D20" r:id="rId13"/>
+    <hyperlink ref="D21" r:id="rId14"/>
+    <hyperlink ref="D22" r:id="rId15"/>
     <hyperlink ref="D24" r:id="rId16"/>
     <hyperlink ref="D25" r:id="rId17"/>
     <hyperlink ref="D26" r:id="rId18"/>
-    <hyperlink ref="D27" r:id="rId19"/>
-    <hyperlink ref="D28" r:id="rId20"/>
+    <hyperlink ref="D28" r:id="rId19"/>
+    <hyperlink ref="D29" r:id="rId20"/>
     <hyperlink ref="D30" r:id="rId21"/>
     <hyperlink ref="D31" r:id="rId22"/>
     <hyperlink ref="D32" r:id="rId23"/>
@@ -3416,111 +2227,59 @@
     <hyperlink ref="D34" r:id="rId25"/>
     <hyperlink ref="D35" r:id="rId26"/>
     <hyperlink ref="D36" r:id="rId27"/>
-    <hyperlink ref="D38" r:id="rId28"/>
-    <hyperlink ref="D39" r:id="rId29"/>
-    <hyperlink ref="D40" r:id="rId30"/>
-    <hyperlink ref="D41" r:id="rId31"/>
-    <hyperlink ref="D44" r:id="rId32"/>
-    <hyperlink ref="D45" r:id="rId33"/>
-    <hyperlink ref="D46" r:id="rId34"/>
-    <hyperlink ref="D47" r:id="rId35"/>
-    <hyperlink ref="D48" r:id="rId36"/>
-    <hyperlink ref="D49" r:id="rId37"/>
-    <hyperlink ref="D50" r:id="rId38"/>
-    <hyperlink ref="D51" r:id="rId39"/>
-    <hyperlink ref="D52" r:id="rId40"/>
-    <hyperlink ref="D53" r:id="rId41"/>
-    <hyperlink ref="D54" r:id="rId42"/>
-    <hyperlink ref="D55" r:id="rId43"/>
-    <hyperlink ref="D56" r:id="rId44"/>
-    <hyperlink ref="D57" r:id="rId45"/>
-    <hyperlink ref="D58" r:id="rId46"/>
-    <hyperlink ref="D59" r:id="rId47"/>
-    <hyperlink ref="D60" r:id="rId48"/>
-    <hyperlink ref="D61" r:id="rId49"/>
-    <hyperlink ref="D62" r:id="rId50"/>
-    <hyperlink ref="D63" r:id="rId51"/>
-    <hyperlink ref="D66" r:id="rId52"/>
-    <hyperlink ref="D67" r:id="rId53"/>
-    <hyperlink ref="D68" r:id="rId54"/>
-    <hyperlink ref="D69" r:id="rId55"/>
-    <hyperlink ref="D70" r:id="rId56"/>
-    <hyperlink ref="D71" r:id="rId57"/>
-    <hyperlink ref="D72" r:id="rId58"/>
-    <hyperlink ref="D73" r:id="rId59"/>
-    <hyperlink ref="D74" r:id="rId60"/>
-    <hyperlink ref="D75" r:id="rId61"/>
-    <hyperlink ref="D76" r:id="rId62"/>
-    <hyperlink ref="D79" r:id="rId63"/>
-    <hyperlink ref="D80" r:id="rId64"/>
-    <hyperlink ref="D81" r:id="rId65"/>
-    <hyperlink ref="D82" r:id="rId66"/>
-    <hyperlink ref="D84" r:id="rId67"/>
-    <hyperlink ref="D85" r:id="rId68"/>
-    <hyperlink ref="D86" r:id="rId69"/>
-    <hyperlink ref="D87" r:id="rId70"/>
-    <hyperlink ref="D90" r:id="rId71"/>
-    <hyperlink ref="D91" r:id="rId72"/>
-    <hyperlink ref="D94" r:id="rId73"/>
-    <hyperlink ref="D95" r:id="rId74"/>
-    <hyperlink ref="D96" r:id="rId75"/>
-    <hyperlink ref="D97" r:id="rId76"/>
-    <hyperlink ref="D98" r:id="rId77"/>
-    <hyperlink ref="D99" r:id="rId78"/>
-    <hyperlink ref="D101" r:id="rId79"/>
-    <hyperlink ref="D102" r:id="rId80"/>
-    <hyperlink ref="D103" r:id="rId81"/>
-    <hyperlink ref="D104" r:id="rId82"/>
-    <hyperlink ref="D105" r:id="rId83"/>
-    <hyperlink ref="D106" r:id="rId84"/>
-    <hyperlink ref="D107" r:id="rId85"/>
-    <hyperlink ref="D108" r:id="rId86"/>
-    <hyperlink ref="D109" r:id="rId87"/>
-    <hyperlink ref="D110" r:id="rId88"/>
-    <hyperlink ref="D111" r:id="rId89"/>
-    <hyperlink ref="D113" r:id="rId90"/>
-    <hyperlink ref="D114" r:id="rId91"/>
-    <hyperlink ref="D115" r:id="rId92"/>
-    <hyperlink ref="D116" r:id="rId93"/>
-    <hyperlink ref="D117" r:id="rId94"/>
-    <hyperlink ref="D118" r:id="rId95"/>
-    <hyperlink ref="D119" r:id="rId96"/>
-    <hyperlink ref="D120" r:id="rId97"/>
-    <hyperlink ref="D121" r:id="rId98"/>
-    <hyperlink ref="D122" r:id="rId99"/>
-    <hyperlink ref="D125" r:id="rId100"/>
-    <hyperlink ref="D126" r:id="rId101"/>
-    <hyperlink ref="D128" r:id="rId102"/>
-    <hyperlink ref="D129" r:id="rId103"/>
-    <hyperlink ref="D130" r:id="rId104"/>
-    <hyperlink ref="D131" r:id="rId105"/>
-    <hyperlink ref="D132" r:id="rId106"/>
-    <hyperlink ref="D134" r:id="rId107"/>
-    <hyperlink ref="D135" r:id="rId108"/>
-    <hyperlink ref="D136" r:id="rId109"/>
-    <hyperlink ref="D137" r:id="rId110"/>
-    <hyperlink ref="D138" r:id="rId111"/>
-    <hyperlink ref="D139" r:id="rId112"/>
-    <hyperlink ref="D140" r:id="rId113"/>
-    <hyperlink ref="D141" r:id="rId114"/>
-    <hyperlink ref="D145" r:id="rId115"/>
-    <hyperlink ref="D146" r:id="rId116"/>
-    <hyperlink ref="D147" r:id="rId117"/>
-    <hyperlink ref="D148" r:id="rId118"/>
-    <hyperlink ref="D149" r:id="rId119"/>
-    <hyperlink ref="D150" r:id="rId120"/>
-    <hyperlink ref="D151" r:id="rId121"/>
-    <hyperlink ref="D152" r:id="rId122"/>
-    <hyperlink ref="D153" r:id="rId123"/>
-    <hyperlink ref="D154" r:id="rId124"/>
-    <hyperlink ref="D155" r:id="rId125"/>
-    <hyperlink ref="D156" r:id="rId126"/>
-    <hyperlink ref="D157" r:id="rId127"/>
-    <hyperlink ref="D158" r:id="rId128"/>
-    <hyperlink ref="D161" r:id="rId129"/>
-    <hyperlink ref="D164" r:id="rId130"/>
-    <hyperlink ref="D165" r:id="rId131"/>
-    <hyperlink ref="D166" r:id="rId132"/>
+    <hyperlink ref="D37" r:id="rId28"/>
+    <hyperlink ref="D38" r:id="rId29"/>
+    <hyperlink ref="D39" r:id="rId30"/>
+    <hyperlink ref="D40" r:id="rId31"/>
+    <hyperlink ref="D41" r:id="rId32"/>
+    <hyperlink ref="D42" r:id="rId33"/>
+    <hyperlink ref="D43" r:id="rId34"/>
+    <hyperlink ref="D46" r:id="rId35"/>
+    <hyperlink ref="D47" r:id="rId36"/>
+    <hyperlink ref="D48" r:id="rId37"/>
+    <hyperlink ref="D49" r:id="rId38"/>
+    <hyperlink ref="D50" r:id="rId39"/>
+    <hyperlink ref="D51" r:id="rId40"/>
+    <hyperlink ref="D54" r:id="rId41"/>
+    <hyperlink ref="D55" r:id="rId42"/>
+    <hyperlink ref="D57" r:id="rId43"/>
+    <hyperlink ref="D59" r:id="rId44"/>
+    <hyperlink ref="D60" r:id="rId45"/>
+    <hyperlink ref="D61" r:id="rId46"/>
+    <hyperlink ref="D62" r:id="rId47"/>
+    <hyperlink ref="D63" r:id="rId48"/>
+    <hyperlink ref="D64" r:id="rId49"/>
+    <hyperlink ref="D66" r:id="rId50"/>
+    <hyperlink ref="D67" r:id="rId51"/>
+    <hyperlink ref="D68" r:id="rId52"/>
+    <hyperlink ref="D69" r:id="rId53"/>
+    <hyperlink ref="D70" r:id="rId54"/>
+    <hyperlink ref="D71" r:id="rId55"/>
+    <hyperlink ref="D72" r:id="rId56"/>
+    <hyperlink ref="D73" r:id="rId57"/>
+    <hyperlink ref="D74" r:id="rId58"/>
+    <hyperlink ref="D76" r:id="rId59"/>
+    <hyperlink ref="D77" r:id="rId60"/>
+    <hyperlink ref="D78" r:id="rId61"/>
+    <hyperlink ref="D79" r:id="rId62"/>
+    <hyperlink ref="D80" r:id="rId63"/>
+    <hyperlink ref="D81" r:id="rId64"/>
+    <hyperlink ref="D83" r:id="rId65"/>
+    <hyperlink ref="D85" r:id="rId66"/>
+    <hyperlink ref="D86" r:id="rId67"/>
+    <hyperlink ref="D87" r:id="rId68"/>
+    <hyperlink ref="D88" r:id="rId69"/>
+    <hyperlink ref="D89" r:id="rId70"/>
+    <hyperlink ref="D91" r:id="rId71"/>
+    <hyperlink ref="D92" r:id="rId72"/>
+    <hyperlink ref="D93" r:id="rId73"/>
+    <hyperlink ref="D94" r:id="rId74"/>
+    <hyperlink ref="D95" r:id="rId75"/>
+    <hyperlink ref="D99" r:id="rId76"/>
+    <hyperlink ref="D100" r:id="rId77"/>
+    <hyperlink ref="D101" r:id="rId78"/>
+    <hyperlink ref="D103" r:id="rId79"/>
+    <hyperlink ref="D104" r:id="rId80"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
